--- a/excel/finished/焦化/CK67-6#炉温记录报表设计.xlsx
+++ b/excel/finished/焦化/CK67-6#炉温记录报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_model" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>日期</t>
   </si>
@@ -159,16 +159,19 @@
     <t>6#机侧</t>
   </si>
   <si>
+    <t>焦炉直行温度管控</t>
+  </si>
+  <si>
+    <t>月均偏差</t>
+  </si>
+  <si>
+    <t>天均偏差</t>
+  </si>
+  <si>
+    <t>6#焦侧</t>
+  </si>
+  <si>
     <t>2018年9月焦炉直行温度管控</t>
-  </si>
-  <si>
-    <t>月均偏差</t>
-  </si>
-  <si>
-    <t>天均偏差</t>
-  </si>
-  <si>
-    <t>6#焦侧</t>
   </si>
   <si>
     <t/>
@@ -541,12 +544,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -571,6 +575,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -594,21 +613,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,17 +628,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -645,49 +680,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -703,20 +695,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -734,7 +738,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,151 +864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,12 +882,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -962,6 +966,30 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -985,22 +1013,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,30 +1052,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1058,16 +1066,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,140 +1093,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1256,7 +1273,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4133,8 +4165,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ61"/>
   <sheetViews>
-    <sheetView topLeftCell="AD48" workbookViewId="0">
-      <selection activeCell="AE56" sqref="AE56"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4196,40 +4228,43 @@
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18">
+        <f>_metadata!B1</f>
+        <v>43432.475215787</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="21"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:33">
       <c r="A3" s="15" t="s">
@@ -4336,43 +4371,43 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17" t="e">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22" t="e">
         <f>IF(炉温记录27!I5="","",炉温记录27!I5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="17" t="e">
+      <c r="AC4" s="22" t="e">
         <f>IF(炉温记录28!I5="","",炉温记录28!I5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
       <c r="AG4" s="8" t="e">
         <f t="shared" ref="AG4:AG59" si="0">AVERAGE(I4:AF4)</f>
         <v>#DIV/0!</v>
@@ -4382,43 +4417,43 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17" t="e">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22" t="e">
         <f>IF(炉温记录27!I6="","",炉温记录27!I6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC5" s="17" t="e">
+      <c r="AC5" s="22" t="e">
         <f>IF(炉温记录28!I6="","",炉温记录28!I6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
       <c r="AG5" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4428,43 +4463,43 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17" t="e">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22" t="e">
         <f>IF(炉温记录27!I7="","",炉温记录27!I7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC6" s="17" t="e">
+      <c r="AC6" s="22" t="e">
         <f>IF(炉温记录28!I7="","",炉温记录28!I7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
       <c r="AG6" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4474,43 +4509,43 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17" t="e">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22" t="e">
         <f>IF(炉温记录27!I8="","",炉温记录27!I8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC7" s="17" t="e">
+      <c r="AC7" s="22" t="e">
         <f>IF(炉温记录28!I8="","",炉温记录28!I8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
       <c r="AG7" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4520,43 +4555,43 @@
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17" t="e">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22" t="e">
         <f>IF(炉温记录27!I9="","",炉温记录27!I9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="17" t="e">
+      <c r="AC8" s="22" t="e">
         <f>IF(炉温记录28!I9="","",炉温记录28!I9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
       <c r="AG8" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4566,43 +4601,43 @@
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17" t="e">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22" t="e">
         <f>IF(炉温记录27!I10="","",炉温记录27!I10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC9" s="17" t="e">
+      <c r="AC9" s="22" t="e">
         <f>IF(炉温记录28!I10="","",炉温记录28!I10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
       <c r="AG9" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4612,43 +4647,43 @@
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17" t="e">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22" t="e">
         <f>IF(炉温记录27!I11="","",炉温记录27!I11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC10" s="17" t="e">
+      <c r="AC10" s="22" t="e">
         <f>IF(炉温记录28!I11="","",炉温记录28!I11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
       <c r="AG10" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4658,43 +4693,43 @@
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17" t="e">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22" t="e">
         <f>IF(炉温记录27!I12="","",炉温记录27!I12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="17" t="e">
+      <c r="AC11" s="22" t="e">
         <f>IF(炉温记录28!I12="","",炉温记录28!I12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
       <c r="AG11" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4704,43 +4739,43 @@
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17" t="e">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22" t="e">
         <f>IF(炉温记录27!I13="","",炉温记录27!I13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="17" t="e">
+      <c r="AC12" s="22" t="e">
         <f>IF(炉温记录28!I13="","",炉温记录28!I13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
       <c r="AG12" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4750,43 +4785,43 @@
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17" t="e">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22" t="e">
         <f>IF(炉温记录27!I14="","",炉温记录27!I14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC13" s="17" t="e">
+      <c r="AC13" s="22" t="e">
         <f>IF(炉温记录28!I14="","",炉温记录28!I14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
       <c r="AG13" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4796,43 +4831,43 @@
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17" t="e">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22" t="e">
         <f>IF(炉温记录27!I15="","",炉温记录27!I15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC14" s="17" t="e">
+      <c r="AC14" s="22" t="e">
         <f>IF(炉温记录28!I15="","",炉温记录28!I15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
       <c r="AG14" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4842,43 +4877,43 @@
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17" t="e">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22" t="e">
         <f>IF(炉温记录27!I16="","",炉温记录27!I16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC15" s="17" t="e">
+      <c r="AC15" s="22" t="e">
         <f>IF(炉温记录28!I16="","",炉温记录28!I16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
       <c r="AG15" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4888,43 +4923,43 @@
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17" t="e">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22" t="e">
         <f>IF(炉温记录27!I17="","",炉温记录27!I17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC16" s="17" t="e">
+      <c r="AC16" s="22" t="e">
         <f>IF(炉温记录28!I17="","",炉温记录28!I17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
       <c r="AG16" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4934,43 +4969,43 @@
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17" t="e">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22" t="e">
         <f>IF(炉温记录27!I18="","",炉温记录27!I18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC17" s="17" t="e">
+      <c r="AC17" s="22" t="e">
         <f>IF(炉温记录28!I18="","",炉温记录28!I18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
       <c r="AG17" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4980,43 +5015,43 @@
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17" t="e">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22" t="e">
         <f>IF(炉温记录27!I19="","",炉温记录27!I19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC18" s="17" t="e">
+      <c r="AC18" s="22" t="e">
         <f>IF(炉温记录28!I19="","",炉温记录28!I19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
       <c r="AG18" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5026,43 +5061,43 @@
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17" t="e">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22" t="e">
         <f>IF(炉温记录27!I20="","",炉温记录27!I20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC19" s="17" t="e">
+      <c r="AC19" s="22" t="e">
         <f>IF(炉温记录28!I20="","",炉温记录28!I20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
       <c r="AG19" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5072,43 +5107,43 @@
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17" t="e">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22" t="e">
         <f>IF(炉温记录27!I21="","",炉温记录27!I21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC20" s="17" t="e">
+      <c r="AC20" s="22" t="e">
         <f>IF(炉温记录28!I21="","",炉温记录28!I21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
       <c r="AG20" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5118,43 +5153,43 @@
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17" t="e">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22" t="e">
         <f>IF(炉温记录27!I22="","",炉温记录27!I22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC21" s="17" t="e">
+      <c r="AC21" s="22" t="e">
         <f>IF(炉温记录28!I22="","",炉温记录28!I22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
       <c r="AG21" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5164,43 +5199,43 @@
       <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17" t="e">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22" t="e">
         <f>IF(炉温记录27!I23="","",炉温记录27!I23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC22" s="17" t="e">
+      <c r="AC22" s="22" t="e">
         <f>IF(炉温记录28!I23="","",炉温记录28!I23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
       <c r="AG22" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5210,43 +5245,43 @@
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17" t="e">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22" t="e">
         <f>IF(炉温记录27!I24="","",炉温记录27!I24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC23" s="17" t="e">
+      <c r="AC23" s="22" t="e">
         <f>IF(炉温记录28!I24="","",炉温记录28!I24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
       <c r="AG23" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5256,43 +5291,43 @@
       <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17" t="e">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22" t="e">
         <f>IF(炉温记录27!I25="","",炉温记录27!I25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC24" s="17" t="e">
+      <c r="AC24" s="22" t="e">
         <f>IF(炉温记录28!I25="","",炉温记录28!I25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
       <c r="AG24" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5302,43 +5337,43 @@
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17" t="e">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22" t="e">
         <f>IF(炉温记录27!I26="","",炉温记录27!I26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC25" s="17" t="e">
+      <c r="AC25" s="22" t="e">
         <f>IF(炉温记录28!I26="","",炉温记录28!I26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
       <c r="AG25" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5348,43 +5383,43 @@
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17" t="e">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22" t="e">
         <f>IF(炉温记录27!I27="","",炉温记录27!I27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC26" s="17" t="e">
+      <c r="AC26" s="22" t="e">
         <f>IF(炉温记录28!I27="","",炉温记录28!I27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
       <c r="AG26" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5394,43 +5429,43 @@
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17" t="e">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22" t="e">
         <f>IF(炉温记录27!I28="","",炉温记录27!I28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC27" s="17" t="e">
+      <c r="AC27" s="22" t="e">
         <f>IF(炉温记录28!I28="","",炉温记录28!I28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
       <c r="AG27" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5440,43 +5475,43 @@
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17" t="e">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22" t="e">
         <f>IF(炉温记录27!I29="","",炉温记录27!I29)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC28" s="17" t="e">
+      <c r="AC28" s="22" t="e">
         <f>IF(炉温记录28!I29="","",炉温记录28!I29)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
       <c r="AG28" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5486,43 +5521,43 @@
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17" t="e">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22" t="e">
         <f>IF(炉温记录27!I30="","",炉温记录27!I30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC29" s="17" t="e">
+      <c r="AC29" s="22" t="e">
         <f>IF(炉温记录28!I30="","",炉温记录28!I30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
       <c r="AG29" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5532,43 +5567,43 @@
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17" t="e">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22" t="e">
         <f>IF(炉温记录27!I31="","",炉温记录27!I31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC30" s="17" t="e">
+      <c r="AC30" s="22" t="e">
         <f>IF(炉温记录28!I31="","",炉温记录28!I31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
       <c r="AG30" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5578,43 +5613,43 @@
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17" t="e">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22" t="e">
         <f>IF(炉温记录27!I32="","",炉温记录27!I32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC31" s="17" t="e">
+      <c r="AC31" s="22" t="e">
         <f>IF(炉温记录28!I32="","",炉温记录28!I32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
       <c r="AG31" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5624,43 +5659,43 @@
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17" t="e">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22" t="e">
         <f>IF(炉温记录27!I33="","",炉温记录27!I33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC32" s="17" t="e">
+      <c r="AC32" s="22" t="e">
         <f>IF(炉温记录28!I33="","",炉温记录28!I33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
       <c r="AG32" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5670,43 +5705,43 @@
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17" t="e">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22" t="e">
         <f>IF(炉温记录27!I34="","",炉温记录27!I34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC33" s="17" t="e">
+      <c r="AC33" s="22" t="e">
         <f>IF(炉温记录28!I34="","",炉温记录28!I34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
       <c r="AG33" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5716,43 +5751,43 @@
       <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17" t="e">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22" t="e">
         <f>IF(炉温记录27!I35="","",炉温记录27!I35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC34" s="17" t="e">
+      <c r="AC34" s="22" t="e">
         <f>IF(炉温记录28!I35="","",炉温记录28!I35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
       <c r="AG34" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5762,43 +5797,43 @@
       <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17" t="e">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22" t="e">
         <f>IF(炉温记录27!I36="","",炉温记录27!I36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC35" s="17" t="e">
+      <c r="AC35" s="22" t="e">
         <f>IF(炉温记录28!I36="","",炉温记录28!I36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
       <c r="AG35" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5808,43 +5843,43 @@
       <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17" t="e">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22" t="e">
         <f>IF(炉温记录27!I37="","",炉温记录27!I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC36" s="17" t="e">
+      <c r="AC36" s="22" t="e">
         <f>IF(炉温记录28!I37="","",炉温记录28!I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="17"/>
-      <c r="AF36" s="17"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
       <c r="AG36" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5854,43 +5889,43 @@
       <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17" t="e">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22" t="e">
         <f>IF(炉温记录27!I38="","",炉温记录27!I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC37" s="17" t="e">
+      <c r="AC37" s="22" t="e">
         <f>IF(炉温记录28!I38="","",炉温记录28!I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
       <c r="AG37" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5900,43 +5935,43 @@
       <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17" t="e">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22" t="e">
         <f>IF(炉温记录27!I39="","",炉温记录27!I39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC38" s="17" t="e">
+      <c r="AC38" s="22" t="e">
         <f>IF(炉温记录28!I39="","",炉温记录28!I39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
       <c r="AG38" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5946,43 +5981,43 @@
       <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17" t="e">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22" t="e">
         <f>IF(炉温记录27!I40="","",炉温记录27!I40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC39" s="17" t="e">
+      <c r="AC39" s="22" t="e">
         <f>IF(炉温记录28!I40="","",炉温记录28!I40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
-      <c r="AF39" s="17"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
       <c r="AG39" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5992,43 +6027,43 @@
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17" t="e">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22" t="e">
         <f>IF(炉温记录27!I41="","",炉温记录27!I41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC40" s="17" t="e">
+      <c r="AC40" s="22" t="e">
         <f>IF(炉温记录28!I41="","",炉温记录28!I41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
       <c r="AG40" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6038,43 +6073,43 @@
       <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17" t="e">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22" t="e">
         <f>IF(炉温记录27!I42="","",炉温记录27!I42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC41" s="17" t="e">
+      <c r="AC41" s="22" t="e">
         <f>IF(炉温记录28!I42="","",炉温记录28!I42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD41" s="17"/>
-      <c r="AE41" s="17"/>
-      <c r="AF41" s="17"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
       <c r="AG41" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6084,43 +6119,43 @@
       <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17" t="e">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22" t="e">
         <f>IF(炉温记录27!I43="","",炉温记录27!I43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC42" s="17" t="e">
+      <c r="AC42" s="22" t="e">
         <f>IF(炉温记录28!I43="","",炉温记录28!I43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD42" s="17"/>
-      <c r="AE42" s="17"/>
-      <c r="AF42" s="17"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
       <c r="AG42" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6130,43 +6165,43 @@
       <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17" t="e">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22" t="e">
         <f>IF(炉温记录27!I44="","",炉温记录27!I44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC43" s="17" t="e">
+      <c r="AC43" s="22" t="e">
         <f>IF(炉温记录28!I44="","",炉温记录28!I44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD43" s="17"/>
-      <c r="AE43" s="17"/>
-      <c r="AF43" s="17"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
       <c r="AG43" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6176,43 +6211,43 @@
       <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="17"/>
-      <c r="AB44" s="17" t="e">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22" t="e">
         <f>IF(炉温记录27!I45="","",炉温记录27!I45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC44" s="17" t="e">
+      <c r="AC44" s="22" t="e">
         <f>IF(炉温记录28!I45="","",炉温记录28!I45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD44" s="17"/>
-      <c r="AE44" s="17"/>
-      <c r="AF44" s="17"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="22"/>
       <c r="AG44" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6222,43 +6257,43 @@
       <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="17" t="e">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22" t="e">
         <f>IF(炉温记录27!I46="","",炉温记录27!I46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC45" s="17" t="e">
+      <c r="AC45" s="22" t="e">
         <f>IF(炉温记录28!I46="","",炉温记录28!I46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD45" s="17"/>
-      <c r="AE45" s="17"/>
-      <c r="AF45" s="17"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="22"/>
+      <c r="AF45" s="22"/>
       <c r="AG45" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6268,43 +6303,43 @@
       <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
-      <c r="AA46" s="17"/>
-      <c r="AB46" s="17" t="e">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22" t="e">
         <f>IF(炉温记录27!I47="","",炉温记录27!I47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC46" s="17" t="e">
+      <c r="AC46" s="22" t="e">
         <f>IF(炉温记录28!I47="","",炉温记录28!I47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD46" s="17"/>
-      <c r="AE46" s="17"/>
-      <c r="AF46" s="17"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
       <c r="AG46" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6314,43 +6349,43 @@
       <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="17"/>
-      <c r="AA47" s="17"/>
-      <c r="AB47" s="17" t="e">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22" t="e">
         <f>IF(炉温记录27!I48="","",炉温记录27!I48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC47" s="17" t="e">
+      <c r="AC47" s="22" t="e">
         <f>IF(炉温记录28!I48="","",炉温记录28!I48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD47" s="17"/>
-      <c r="AE47" s="17"/>
-      <c r="AF47" s="17"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
       <c r="AG47" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6360,43 +6395,43 @@
       <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="17"/>
-      <c r="AB48" s="17" t="e">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="22" t="e">
         <f>IF(炉温记录27!I49="","",炉温记录27!I49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC48" s="17" t="e">
+      <c r="AC48" s="22" t="e">
         <f>IF(炉温记录28!I49="","",炉温记录28!I49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD48" s="17"/>
-      <c r="AE48" s="17"/>
-      <c r="AF48" s="17"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="22"/>
+      <c r="AF48" s="22"/>
       <c r="AG48" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6406,43 +6441,43 @@
       <c r="A49" s="7">
         <v>46</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="17"/>
-      <c r="AA49" s="17"/>
-      <c r="AB49" s="17" t="e">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22" t="e">
         <f>IF(炉温记录27!I50="","",炉温记录27!I50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC49" s="17" t="e">
+      <c r="AC49" s="22" t="e">
         <f>IF(炉温记录28!I50="","",炉温记录28!I50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD49" s="17"/>
-      <c r="AE49" s="17"/>
-      <c r="AF49" s="17"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
       <c r="AG49" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6452,43 +6487,43 @@
       <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="17" t="e">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="22" t="e">
         <f>IF(炉温记录27!I51="","",炉温记录27!I51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC50" s="17" t="e">
+      <c r="AC50" s="22" t="e">
         <f>IF(炉温记录28!I51="","",炉温记录28!I51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="17"/>
-      <c r="AF50" s="17"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="22"/>
+      <c r="AF50" s="22"/>
       <c r="AG50" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6498,43 +6533,43 @@
       <c r="A51" s="7">
         <v>48</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="17" t="e">
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22" t="e">
         <f>IF(炉温记录27!I52="","",炉温记录27!I52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC51" s="17" t="e">
+      <c r="AC51" s="22" t="e">
         <f>IF(炉温记录28!I52="","",炉温记录28!I52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD51" s="17"/>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
+      <c r="AD51" s="22"/>
+      <c r="AE51" s="22"/>
+      <c r="AF51" s="22"/>
       <c r="AG51" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6544,43 +6579,43 @@
       <c r="A52" s="7">
         <v>49</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="17"/>
-      <c r="AB52" s="17" t="e">
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="22" t="e">
         <f>IF(炉温记录27!I53="","",炉温记录27!I53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC52" s="17" t="e">
+      <c r="AC52" s="22" t="e">
         <f>IF(炉温记录28!I53="","",炉温记录28!I53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD52" s="17"/>
-      <c r="AE52" s="17"/>
-      <c r="AF52" s="17"/>
+      <c r="AD52" s="22"/>
+      <c r="AE52" s="22"/>
+      <c r="AF52" s="22"/>
       <c r="AG52" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6590,43 +6625,43 @@
       <c r="A53" s="7">
         <v>50</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="17"/>
-      <c r="AB53" s="17" t="e">
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22" t="e">
         <f>IF(炉温记录27!I54="","",炉温记录27!I54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC53" s="17" t="e">
+      <c r="AC53" s="22" t="e">
         <f>IF(炉温记录28!I54="","",炉温记录28!I54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD53" s="17"/>
-      <c r="AE53" s="17"/>
-      <c r="AF53" s="17"/>
+      <c r="AD53" s="22"/>
+      <c r="AE53" s="22"/>
+      <c r="AF53" s="22"/>
       <c r="AG53" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6636,43 +6671,43 @@
       <c r="A54" s="7">
         <v>51</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="17"/>
-      <c r="AA54" s="17"/>
-      <c r="AB54" s="17" t="e">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="22"/>
+      <c r="X54" s="22"/>
+      <c r="Y54" s="22"/>
+      <c r="Z54" s="22"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="22" t="e">
         <f>IF(炉温记录27!I55="","",炉温记录27!I55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC54" s="17" t="e">
+      <c r="AC54" s="22" t="e">
         <f>IF(炉温记录28!I55="","",炉温记录28!I55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD54" s="17"/>
-      <c r="AE54" s="17"/>
-      <c r="AF54" s="17"/>
+      <c r="AD54" s="22"/>
+      <c r="AE54" s="22"/>
+      <c r="AF54" s="22"/>
       <c r="AG54" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6682,43 +6717,43 @@
       <c r="A55" s="7">
         <v>52</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="17"/>
-      <c r="AB55" s="17" t="e">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22" t="e">
         <f>IF(炉温记录27!I56="","",炉温记录27!I56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC55" s="17" t="e">
+      <c r="AC55" s="22" t="e">
         <f>IF(炉温记录28!I56="","",炉温记录28!I56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD55" s="17"/>
-      <c r="AE55" s="17"/>
-      <c r="AF55" s="17"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
       <c r="AG55" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6728,43 +6763,43 @@
       <c r="A56" s="7">
         <v>53</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="17"/>
-      <c r="AB56" s="17" t="e">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22" t="e">
         <f>IF(炉温记录27!I57="","",炉温记录27!I57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC56" s="17" t="e">
+      <c r="AC56" s="22" t="e">
         <f>IF(炉温记录28!I57="","",炉温记录28!I57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD56" s="17"/>
-      <c r="AE56" s="17"/>
-      <c r="AF56" s="17"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
       <c r="AG56" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6774,43 +6809,43 @@
       <c r="A57" s="7">
         <v>54</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="17"/>
-      <c r="Z57" s="17"/>
-      <c r="AA57" s="17"/>
-      <c r="AB57" s="17" t="e">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22" t="e">
         <f>IF(炉温记录27!I58="","",炉温记录27!I58)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC57" s="17" t="e">
+      <c r="AC57" s="22" t="e">
         <f>IF(炉温记录28!I58="","",炉温记录28!I58)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD57" s="17"/>
-      <c r="AE57" s="17"/>
-      <c r="AF57" s="17"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
       <c r="AG57" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6820,43 +6855,43 @@
       <c r="A58" s="7">
         <v>55</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="17"/>
-      <c r="Z58" s="17"/>
-      <c r="AA58" s="17"/>
-      <c r="AB58" s="17" t="e">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="22" t="e">
         <f>IF(炉温记录27!I59="","",炉温记录27!I59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC58" s="17" t="e">
+      <c r="AC58" s="22" t="e">
         <f>IF(炉温记录28!I59="","",炉温记录28!I59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD58" s="17"/>
-      <c r="AE58" s="17"/>
-      <c r="AF58" s="17"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="22"/>
+      <c r="AF58" s="22"/>
       <c r="AG58" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6866,43 +6901,43 @@
       <c r="A59" s="7">
         <v>56</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="17"/>
-      <c r="AA59" s="17"/>
-      <c r="AB59" s="17" t="e">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22" t="e">
         <f>IF(炉温记录27!I60="","",炉温记录27!I60)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC59" s="17" t="e">
+      <c r="AC59" s="22" t="e">
         <f>IF(炉温记录28!I60="","",炉温记录28!I60)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD59" s="17"/>
-      <c r="AE59" s="17"/>
-      <c r="AF59" s="17"/>
+      <c r="AD59" s="22"/>
+      <c r="AE59" s="22"/>
+      <c r="AF59" s="22"/>
       <c r="AG59" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7043,8 +7078,11 @@
       <c r="AQ61" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:AG2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="AB2:AG2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -7056,8 +7094,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4:AB59"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7121,40 +7159,43 @@
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18">
+        <f>_metadata!B1</f>
+        <v>43432.475215787</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="21"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:33">
       <c r="A3" s="15" t="s">
@@ -7359,7 +7400,9 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -9976,8 +10019,11 @@
       <c r="AQ63" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:AG2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="AB2:AG2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -10129,10 +10175,10 @@
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>21</v>
@@ -10157,12 +10203,12 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A5" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -10192,7 +10238,7 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -10212,7 +10258,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -10227,7 +10273,7 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A7" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -10244,7 +10290,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -10262,12 +10308,12 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -10297,7 +10343,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -10317,7 +10363,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -10332,13 +10378,13 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -10367,7 +10413,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -10386,7 +10432,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -10402,11 +10448,11 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -10437,13 +10483,13 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -10472,7 +10518,7 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -10492,7 +10538,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -10507,7 +10553,7 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -10525,7 +10571,7 @@
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -10542,7 +10588,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -10562,7 +10608,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
@@ -10577,7 +10623,7 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -10597,7 +10643,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
@@ -10612,7 +10658,7 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -10632,7 +10678,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
@@ -10647,7 +10693,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -10666,7 +10712,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -10682,7 +10728,7 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -10701,7 +10747,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
@@ -10717,7 +10763,7 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -10737,7 +10783,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -10752,7 +10798,7 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -10772,7 +10818,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -10787,12 +10833,12 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A23" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -10822,7 +10868,7 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -10839,12 +10885,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -10859,13 +10905,13 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -10883,7 +10929,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P25" s="8" t="e">
         <f t="shared" si="2"/>
@@ -10896,15 +10942,15 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A26" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -10933,11 +10979,11 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A27" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -10955,7 +11001,7 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
@@ -10970,7 +11016,7 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -10990,7 +11036,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -11005,7 +11051,7 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A29" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -11013,7 +11059,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H29" s="8" t="e">
         <f t="shared" si="0"/>
@@ -11025,7 +11071,7 @@
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -11042,7 +11088,7 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -11061,10 +11107,10 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -11079,7 +11125,7 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A31" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -11101,7 +11147,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P31" s="8" t="e">
         <f t="shared" si="2"/>
@@ -11114,7 +11160,7 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A32" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -11134,7 +11180,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -11149,7 +11195,7 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A33" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -11171,7 +11217,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="8" t="e">
         <f t="shared" si="2"/>
@@ -11184,13 +11230,13 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A34" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -11208,7 +11254,7 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P34" s="8" t="e">
         <f t="shared" si="2"/>
@@ -11221,13 +11267,13 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A35" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -11243,7 +11289,7 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -11258,13 +11304,13 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A36" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -11280,7 +11326,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -11295,7 +11341,7 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A37" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -11303,7 +11349,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H37" s="8" t="e">
         <f t="shared" si="0"/>
@@ -11317,7 +11363,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -11332,13 +11378,13 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A38" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -11352,7 +11398,7 @@
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -11369,7 +11415,7 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A39" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -11377,7 +11423,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H39" s="8" t="e">
         <f t="shared" si="0"/>
@@ -11391,7 +11437,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -11406,13 +11452,13 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A40" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -11426,7 +11472,7 @@
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -11443,7 +11489,7 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A41" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -11451,7 +11497,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H41" s="8" t="e">
         <f t="shared" si="0"/>
@@ -11465,7 +11511,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -11480,13 +11526,13 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A42" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -11502,7 +11548,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -11517,7 +11563,7 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A43" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -11525,7 +11571,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H43" s="8" t="e">
         <f t="shared" si="0"/>
@@ -11537,7 +11583,7 @@
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -11554,13 +11600,13 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A44" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -11576,7 +11622,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
@@ -11591,7 +11637,7 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A45" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -11599,7 +11645,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H45" s="8" t="e">
         <f t="shared" si="0"/>
@@ -11615,7 +11661,7 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P45" s="8" t="e">
         <f t="shared" si="2"/>
@@ -11628,13 +11674,13 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A46" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -11648,7 +11694,7 @@
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -11665,7 +11711,7 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A47" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -11673,7 +11719,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H47" s="8" t="e">
         <f t="shared" si="0"/>
@@ -11689,7 +11735,7 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P47" s="8" t="e">
         <f t="shared" si="2"/>
@@ -11702,7 +11748,7 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A48" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -11710,7 +11756,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H48" s="8" t="e">
         <f t="shared" si="0"/>
@@ -11724,7 +11770,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
@@ -11739,7 +11785,7 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A49" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -11747,7 +11793,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H49" s="8" t="e">
         <f t="shared" si="0"/>
@@ -11774,13 +11820,13 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A50" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -11796,7 +11842,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
@@ -11811,17 +11857,17 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A51" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H51" s="8" t="e">
         <f t="shared" si="0"/>
@@ -11848,15 +11894,15 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A52" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -11885,11 +11931,11 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A53" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -11907,7 +11953,7 @@
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
@@ -11922,11 +11968,11 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A54" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -11957,17 +12003,17 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A55" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H55" s="8" t="e">
         <f t="shared" si="0"/>
@@ -11994,13 +12040,13 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A56" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -12016,7 +12062,7 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
@@ -12031,12 +12077,12 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A57" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -12055,7 +12101,7 @@
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P57" s="8" t="e">
         <f t="shared" si="2"/>
@@ -12068,10 +12114,10 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A58" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -12090,7 +12136,7 @@
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
@@ -12105,12 +12151,12 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A59" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -12129,7 +12175,7 @@
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P59" s="8" t="e">
         <f t="shared" si="2"/>
@@ -12142,10 +12188,10 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A60" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -12834,7 +12880,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B1">
         <v>43432.475215787</v>
@@ -12842,82 +12888,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -13071,10 +13117,10 @@
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>21</v>
@@ -13099,7 +13145,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A5" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -13132,7 +13178,7 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -13165,7 +13211,7 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A7" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -13198,7 +13244,7 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -13231,7 +13277,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -13264,7 +13310,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -13297,7 +13343,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -13330,7 +13376,7 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -13363,7 +13409,7 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -13396,7 +13442,7 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -13429,7 +13475,7 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -13462,7 +13508,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -13495,7 +13541,7 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -13528,7 +13574,7 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -13561,7 +13607,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -13594,7 +13640,7 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -13627,7 +13673,7 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -13660,7 +13706,7 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -13693,7 +13739,7 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A23" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -13726,7 +13772,7 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -13759,7 +13805,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -13792,7 +13838,7 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A26" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -13825,7 +13871,7 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A27" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -13858,7 +13904,7 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -13891,7 +13937,7 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A29" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -13924,7 +13970,7 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -13957,7 +14003,7 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A31" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -13990,7 +14036,7 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A32" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -14023,7 +14069,7 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A33" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -14056,7 +14102,7 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A34" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -14089,7 +14135,7 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A35" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -14122,7 +14168,7 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A36" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -14155,7 +14201,7 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A37" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -14188,7 +14234,7 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A38" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -14221,7 +14267,7 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A39" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -14254,7 +14300,7 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A40" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -14287,7 +14333,7 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A41" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -14320,7 +14366,7 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A42" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -14353,7 +14399,7 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A43" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -14386,7 +14432,7 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A44" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -14419,7 +14465,7 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A45" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -14452,7 +14498,7 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A46" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -14485,7 +14531,7 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A47" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -14518,7 +14564,7 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A48" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -14551,7 +14597,7 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A49" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -14584,7 +14630,7 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A50" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -14617,7 +14663,7 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A51" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -14650,7 +14696,7 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A52" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -14683,7 +14729,7 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A53" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -14716,7 +14762,7 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A54" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -14749,7 +14795,7 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A55" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -14782,7 +14828,7 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A56" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -14815,7 +14861,7 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A57" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -14848,7 +14894,7 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A58" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -14881,7 +14927,7 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A59" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -14914,7 +14960,7 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A60" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>

--- a/excel/finished/焦化/CK67-6#炉温记录报表设计.xlsx
+++ b/excel/finished/焦化/CK67-6#炉温记录报表设计.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="_model" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="6#机侧炉温管控(月)从动态管控系统读取或计算" sheetId="2" r:id="rId2"/>
     <sheet name="6#焦侧炉温管控(月)从动态管控系统读取或计算" sheetId="3" r:id="rId3"/>
     <sheet name="炉温记录27" sheetId="4" r:id="rId4"/>
-    <sheet name="_metadata" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="_metadata" sheetId="5" r:id="rId5"/>
     <sheet name="炉温记录28" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -545,12 +545,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -575,6 +575,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -582,9 +597,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -598,7 +621,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,6 +660,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -620,38 +674,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,15 +697,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,40 +710,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -738,7 +738,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,85 +828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,19 +852,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,37 +876,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,7 +912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,41 +978,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1032,7 +997,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,6 +1013,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,16 +1060,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1093,136 +1093,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1273,22 +1273,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4165,8 +4165,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:R2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7094,8 +7094,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:R2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12983,12 +12983,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="7" width="9" style="1" collapsed="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16363" width="9" style="1" collapsed="1"/>
-    <col min="16364" max="16384" width="9" style="2" collapsed="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="9" max="16363" width="9" style="1"/>
+    <col min="16364" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">

--- a/excel/finished/焦化/CK67-6#炉温记录报表设计.xlsx
+++ b/excel/finished/焦化/CK67-6#炉温记录报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="_model" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="173">
   <si>
     <t>日期</t>
   </si>
@@ -543,16 +543,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +559,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -570,160 +567,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,192 +594,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -977,256 +659,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1273,80 +713,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1608,19 +1007,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XEI74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1" collapsed="1"/>
@@ -1630,7 +1029,7 @@
     <col min="16364" max="16384" width="9" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1657,30 +1056,30 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1733,7 +1132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1778,7 +1177,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1809,7 +1208,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1840,7 +1239,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1871,7 +1270,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1902,7 +1301,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1933,7 +1332,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1964,7 +1363,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1995,7 +1394,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2026,7 +1425,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2057,7 +1456,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2088,7 +1487,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2119,7 +1518,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2150,7 +1549,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2181,7 +1580,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2212,7 +1611,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2243,7 +1642,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2274,7 +1673,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2305,7 +1704,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2336,7 +1735,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2367,7 +1766,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2398,7 +1797,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="25" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2429,7 +1828,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2460,7 +1859,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="27" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2491,7 +1890,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2522,7 +1921,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="29" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -2553,7 +1952,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="30" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2584,7 +1983,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2615,7 +2014,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2646,7 +2045,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="33" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2677,7 +2076,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="34" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2708,7 +2107,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="35" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2739,7 +2138,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2770,7 +2169,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="37" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2801,7 +2200,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="38" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2832,7 +2231,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="39" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2863,7 +2262,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="40" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2894,7 +2293,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="41" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2925,7 +2324,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="42" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2956,7 +2355,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="43" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2987,7 +2386,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="44" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3018,7 +2417,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="45" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3049,7 +2448,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="46" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3080,7 +2479,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="47" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3111,7 +2510,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="48" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3142,7 +2541,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="49" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3173,7 +2572,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="50" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3204,7 +2603,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="51" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3235,7 +2634,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="52" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3266,7 +2665,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="53" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3297,7 +2696,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="54" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3328,7 +2727,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="55" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -3359,7 +2758,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="56" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3390,7 +2789,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="57" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -3421,7 +2820,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="58" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -3452,7 +2851,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="59" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3483,7 +2882,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="60" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3514,184 +2913,184 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="61" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="8" t="e">
-        <f ca="1" t="shared" ref="B61:H61" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
+        <f t="shared" ref="B61:H61" ca="1" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="e">
-        <f ca="1" t="shared" ref="J61:P61" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
+        <f t="shared" ref="J61:P61" ca="1" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="8">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="P61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="62" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="8" t="e">
-        <f ca="1" t="shared" ref="B62:H62" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
+        <f t="shared" ref="B62:H62" ca="1" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="e">
-        <f ca="1" t="shared" ref="J62:P62" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
+        <f t="shared" ref="J62:P62" ca="1" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="8">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="P62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="63" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="9" t="e">
-        <f ca="1" t="shared" ref="B63:G63" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
+        <f t="shared" ref="B63:G63" ca="1" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="e">
-        <f ca="1" t="shared" ref="J63:O63" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
+        <f t="shared" ref="J63:O63" ca="1" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O63" s="9" t="str">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>↑0↓2</v>
       </c>
       <c r="P63" s="9" t="s">
@@ -3699,7 +3098,7 @@
       </c>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="64" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>31</v>
       </c>
@@ -3762,7 +3161,7 @@
       </c>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="65" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>32</v>
       </c>
@@ -3825,7 +3224,7 @@
       </c>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="66" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>12</v>
       </c>
@@ -3887,7 +3286,7 @@
       </c>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="67" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>33</v>
       </c>
@@ -3936,7 +3335,7 @@
       </c>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="68" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>34</v>
       </c>
@@ -3999,10 +3398,10 @@
       </c>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="13.5" spans="9:9">
+    <row r="69" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="I69" s="12"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="70" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
         <v>35</v>
@@ -4026,7 +3425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="71" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C71" s="7" t="s">
         <v>37</v>
       </c>
@@ -4039,7 +3438,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F71" s="11" t="e">
-        <f ca="1" t="shared" ref="F71:F73" si="18">AVERAGE(D71:E71)</f>
+        <f t="shared" ref="F71:F73" ca="1" si="18">AVERAGE(D71:E71)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G71" s="11"/>
@@ -4060,7 +3459,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="72" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C72" s="7" t="s">
         <v>39</v>
       </c>
@@ -4073,7 +3472,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F72" s="11" t="e">
-        <f ca="1" t="shared" si="18"/>
+        <f t="shared" ca="1" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G72" s="7"/>
@@ -4094,7 +3493,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="73" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C73" s="7" t="s">
         <v>41</v>
       </c>
@@ -4107,7 +3506,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F73" s="11" t="e">
-        <f ca="1" t="shared" si="18"/>
+        <f t="shared" ca="1" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G73" s="7"/>
@@ -4128,7 +3527,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="74" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C74" s="8" t="s">
         <v>43</v>
       </c>
@@ -4155,21 +3554,20 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ61"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
@@ -4185,7 +3583,7 @@
     <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:33">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -4224,49 +3622,49 @@
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:33">
+    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21">
         <f>_metadata!B1</f>
-        <v>43432.475215787</v>
-      </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19" t="s">
+        <v>43432.475215787003</v>
+      </c>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="21"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:33">
+      <c r="R2" s="22"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="23"/>
+    </row>
+    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -4367,2583 +3765,2605 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:33">
+    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22" t="e">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17" t="e">
         <f>IF(炉温记录27!I5="","",炉温记录27!I5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="22" t="e">
+      <c r="AC4" s="17" t="e">
         <f>IF(炉温记录28!I5="","",炉温记录28!I5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="8" t="e">
         <f t="shared" ref="AG4:AG59" si="0">AVERAGE(I4:AF4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:33">
+    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22" t="e">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17" t="e">
         <f>IF(炉温记录27!I6="","",炉温记录27!I6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC5" s="22" t="e">
+      <c r="AC5" s="17" t="e">
         <f>IF(炉温记录28!I6="","",炉温记录28!I6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
       <c r="AG5" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:33">
+    <row r="6" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22" t="e">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17" t="e">
         <f>IF(炉温记录27!I7="","",炉温记录27!I7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC6" s="22" t="e">
+      <c r="AC6" s="17" t="e">
         <f>IF(炉温记录28!I7="","",炉温记录28!I7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
       <c r="AG6" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:33">
+    <row r="7" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22" t="e">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17" t="e">
         <f>IF(炉温记录27!I8="","",炉温记录27!I8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC7" s="22" t="e">
+      <c r="AC7" s="17" t="e">
         <f>IF(炉温记录28!I8="","",炉温记录28!I8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
       <c r="AG7" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:33">
+    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22" t="e">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17" t="e">
         <f>IF(炉温记录27!I9="","",炉温记录27!I9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="22" t="e">
+      <c r="AC8" s="17" t="e">
         <f>IF(炉温记录28!I9="","",炉温记录28!I9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
       <c r="AG8" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:33">
+    <row r="9" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22" t="e">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17" t="e">
         <f>IF(炉温记录27!I10="","",炉温记录27!I10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC9" s="22" t="e">
+      <c r="AC9" s="17" t="e">
         <f>IF(炉温记录28!I10="","",炉温记录28!I10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
       <c r="AG9" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:33">
+    <row r="10" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22" t="e">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17" t="e">
         <f>IF(炉温记录27!I11="","",炉温记录27!I11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC10" s="22" t="e">
+      <c r="AC10" s="17" t="e">
         <f>IF(炉温记录28!I11="","",炉温记录28!I11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
       <c r="AG10" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:33">
+    <row r="11" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22" t="e">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17" t="e">
         <f>IF(炉温记录27!I12="","",炉温记录27!I12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="22" t="e">
+      <c r="AC11" s="17" t="e">
         <f>IF(炉温记录28!I12="","",炉温记录28!I12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
       <c r="AG11" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:33">
+    <row r="12" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22" t="e">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17" t="e">
         <f>IF(炉温记录27!I13="","",炉温记录27!I13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="22" t="e">
+      <c r="AC12" s="17" t="e">
         <f>IF(炉温记录28!I13="","",炉温记录28!I13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
       <c r="AG12" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:33">
+    <row r="13" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22" t="e">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17" t="e">
         <f>IF(炉温记录27!I14="","",炉温记录27!I14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC13" s="22" t="e">
+      <c r="AC13" s="17" t="e">
         <f>IF(炉温记录28!I14="","",炉温记录28!I14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
       <c r="AG13" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:33">
+    <row r="14" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22" t="e">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17" t="e">
         <f>IF(炉温记录27!I15="","",炉温记录27!I15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC14" s="22" t="e">
+      <c r="AC14" s="17" t="e">
         <f>IF(炉温记录28!I15="","",炉温记录28!I15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
       <c r="AG14" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:33">
+    <row r="15" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22" t="e">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17" t="e">
         <f>IF(炉温记录27!I16="","",炉温记录27!I16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC15" s="22" t="e">
+      <c r="AC15" s="17" t="e">
         <f>IF(炉温记录28!I16="","",炉温记录28!I16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
       <c r="AG15" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:33">
+    <row r="16" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22" t="e">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17" t="e">
         <f>IF(炉温记录27!I17="","",炉温记录27!I17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC16" s="22" t="e">
+      <c r="AC16" s="17" t="e">
         <f>IF(炉温记录28!I17="","",炉温记录28!I17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
       <c r="AG16" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:33">
+    <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22" t="e">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17" t="e">
         <f>IF(炉温记录27!I18="","",炉温记录27!I18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC17" s="22" t="e">
+      <c r="AC17" s="17" t="e">
         <f>IF(炉温记录28!I18="","",炉温记录28!I18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
       <c r="AG17" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:33">
+    <row r="18" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22" t="e">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17" t="e">
         <f>IF(炉温记录27!I19="","",炉温记录27!I19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC18" s="22" t="e">
+      <c r="AC18" s="17" t="e">
         <f>IF(炉温记录28!I19="","",炉温记录28!I19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
       <c r="AG18" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:33">
+    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22" t="e">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17" t="e">
         <f>IF(炉温记录27!I20="","",炉温记录27!I20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC19" s="22" t="e">
+      <c r="AC19" s="17" t="e">
         <f>IF(炉温记录28!I20="","",炉温记录28!I20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
       <c r="AG19" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:33">
+    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22" t="e">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17" t="e">
         <f>IF(炉温记录27!I21="","",炉温记录27!I21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC20" s="22" t="e">
+      <c r="AC20" s="17" t="e">
         <f>IF(炉温记录28!I21="","",炉温记录28!I21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
       <c r="AG20" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:33">
+    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22" t="e">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17" t="e">
         <f>IF(炉温记录27!I22="","",炉温记录27!I22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC21" s="22" t="e">
+      <c r="AC21" s="17" t="e">
         <f>IF(炉温记录28!I22="","",炉温记录28!I22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
       <c r="AG21" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:33">
+    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22" t="e">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17" t="e">
         <f>IF(炉温记录27!I23="","",炉温记录27!I23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC22" s="22" t="e">
+      <c r="AC22" s="17" t="e">
         <f>IF(炉温记录28!I23="","",炉温记录28!I23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
       <c r="AG22" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:33">
+    <row r="23" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22" t="e">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17" t="e">
         <f>IF(炉温记录27!I24="","",炉温记录27!I24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC23" s="22" t="e">
+      <c r="AC23" s="17" t="e">
         <f>IF(炉温记录28!I24="","",炉温记录28!I24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
       <c r="AG23" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:33">
+    <row r="24" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22" t="e">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17" t="e">
         <f>IF(炉温记录27!I25="","",炉温记录27!I25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC24" s="22" t="e">
+      <c r="AC24" s="17" t="e">
         <f>IF(炉温记录28!I25="","",炉温记录28!I25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
       <c r="AG24" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:33">
+    <row r="25" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22" t="e">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17" t="e">
         <f>IF(炉温记录27!I26="","",炉温记录27!I26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC25" s="22" t="e">
+      <c r="AC25" s="17" t="e">
         <f>IF(炉温记录28!I26="","",炉温记录28!I26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="22"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
       <c r="AG25" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:33">
+    <row r="26" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22" t="e">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17" t="e">
         <f>IF(炉温记录27!I27="","",炉温记录27!I27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC26" s="22" t="e">
+      <c r="AC26" s="17" t="e">
         <f>IF(炉温记录28!I27="","",炉温记录28!I27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD26" s="22"/>
-      <c r="AE26" s="22"/>
-      <c r="AF26" s="22"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
       <c r="AG26" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:33">
+    <row r="27" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22" t="e">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17" t="e">
         <f>IF(炉温记录27!I28="","",炉温记录27!I28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC27" s="22" t="e">
+      <c r="AC27" s="17" t="e">
         <f>IF(炉温记录28!I28="","",炉温记录28!I28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
       <c r="AG27" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:33">
+    <row r="28" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22" t="e">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17" t="e">
         <f>IF(炉温记录27!I29="","",炉温记录27!I29)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC28" s="22" t="e">
+      <c r="AC28" s="17" t="e">
         <f>IF(炉温记录28!I29="","",炉温记录28!I29)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
       <c r="AG28" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:33">
+    <row r="29" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22" t="e">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17" t="e">
         <f>IF(炉温记录27!I30="","",炉温记录27!I30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC29" s="22" t="e">
+      <c r="AC29" s="17" t="e">
         <f>IF(炉温记录28!I30="","",炉温记录28!I30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
       <c r="AG29" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:33">
+    <row r="30" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22" t="e">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17" t="e">
         <f>IF(炉温记录27!I31="","",炉温记录27!I31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC30" s="22" t="e">
+      <c r="AC30" s="17" t="e">
         <f>IF(炉温记录28!I31="","",炉温记录28!I31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
       <c r="AG30" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:33">
+    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22" t="e">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17" t="e">
         <f>IF(炉温记录27!I32="","",炉温记录27!I32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC31" s="22" t="e">
+      <c r="AC31" s="17" t="e">
         <f>IF(炉温记录28!I32="","",炉温记录28!I32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
       <c r="AG31" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:33">
+    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22" t="e">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17" t="e">
         <f>IF(炉温记录27!I33="","",炉温记录27!I33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC32" s="22" t="e">
+      <c r="AC32" s="17" t="e">
         <f>IF(炉温记录28!I33="","",炉温记录28!I33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
       <c r="AG32" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:33">
+    <row r="33" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22" t="e">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17" t="e">
         <f>IF(炉温记录27!I34="","",炉温记录27!I34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC33" s="22" t="e">
+      <c r="AC33" s="17" t="e">
         <f>IF(炉温记录28!I34="","",炉温记录28!I34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
       <c r="AG33" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:33">
+    <row r="34" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22" t="e">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17" t="e">
         <f>IF(炉温记录27!I35="","",炉温记录27!I35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC34" s="22" t="e">
+      <c r="AC34" s="17" t="e">
         <f>IF(炉温记录28!I35="","",炉温记录28!I35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="22"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
       <c r="AG34" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:33">
+    <row r="35" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22" t="e">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17" t="e">
         <f>IF(炉温记录27!I36="","",炉温记录27!I36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC35" s="22" t="e">
+      <c r="AC35" s="17" t="e">
         <f>IF(炉温记录28!I36="","",炉温记录28!I36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" s="22"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
       <c r="AG35" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:33">
+    <row r="36" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22" t="e">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17" t="e">
         <f>IF(炉温记录27!I37="","",炉温记录27!I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC36" s="22" t="e">
+      <c r="AC36" s="17" t="e">
         <f>IF(炉温记录28!I37="","",炉温记录28!I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
       <c r="AG36" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:33">
+    <row r="37" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22" t="e">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17" t="e">
         <f>IF(炉温记录27!I38="","",炉温记录27!I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC37" s="22" t="e">
+      <c r="AC37" s="17" t="e">
         <f>IF(炉温记录28!I38="","",炉温记录28!I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="22"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
       <c r="AG37" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:33">
+    <row r="38" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22" t="e">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17" t="e">
         <f>IF(炉温记录27!I39="","",炉温记录27!I39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC38" s="22" t="e">
+      <c r="AC38" s="17" t="e">
         <f>IF(炉温记录28!I39="","",炉温记录28!I39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
       <c r="AG38" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:33">
+    <row r="39" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="22" t="e">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17" t="e">
         <f>IF(炉温记录27!I40="","",炉温记录27!I40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC39" s="22" t="e">
+      <c r="AC39" s="17" t="e">
         <f>IF(炉温记录28!I40="","",炉温记录28!I40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="22"/>
-      <c r="AF39" s="22"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
       <c r="AG39" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:33">
+    <row r="40" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="22" t="e">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17" t="e">
         <f>IF(炉温记录27!I41="","",炉温记录27!I41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC40" s="22" t="e">
+      <c r="AC40" s="17" t="e">
         <f>IF(炉温记录28!I41="","",炉温记录28!I41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="22"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
       <c r="AG40" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:33">
+    <row r="41" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="22" t="e">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17" t="e">
         <f>IF(炉温记录27!I42="","",炉温记录27!I42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC41" s="22" t="e">
+      <c r="AC41" s="17" t="e">
         <f>IF(炉温记录28!I42="","",炉温记录28!I42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD41" s="22"/>
-      <c r="AE41" s="22"/>
-      <c r="AF41" s="22"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
       <c r="AG41" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:33">
+    <row r="42" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="22" t="e">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17" t="e">
         <f>IF(炉温记录27!I43="","",炉温记录27!I43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC42" s="22" t="e">
+      <c r="AC42" s="17" t="e">
         <f>IF(炉温记录28!I43="","",炉温记录28!I43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD42" s="22"/>
-      <c r="AE42" s="22"/>
-      <c r="AF42" s="22"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
       <c r="AG42" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:33">
+    <row r="43" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="22" t="e">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17" t="e">
         <f>IF(炉温记录27!I44="","",炉温记录27!I44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC43" s="22" t="e">
+      <c r="AC43" s="17" t="e">
         <f>IF(炉温记录28!I44="","",炉温记录28!I44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD43" s="22"/>
-      <c r="AE43" s="22"/>
-      <c r="AF43" s="22"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
       <c r="AG43" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:33">
+    <row r="44" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22" t="e">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17" t="e">
         <f>IF(炉温记录27!I45="","",炉温记录27!I45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC44" s="22" t="e">
+      <c r="AC44" s="17" t="e">
         <f>IF(炉温记录28!I45="","",炉温记录28!I45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
       <c r="AG44" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:33">
+    <row r="45" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="22" t="e">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17" t="e">
         <f>IF(炉温记录27!I46="","",炉温记录27!I46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC45" s="22" t="e">
+      <c r="AC45" s="17" t="e">
         <f>IF(炉温记录28!I46="","",炉温记录28!I46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD45" s="22"/>
-      <c r="AE45" s="22"/>
-      <c r="AF45" s="22"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="17"/>
       <c r="AG45" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:33">
+    <row r="46" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="22"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="22" t="e">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17" t="e">
         <f>IF(炉温记录27!I47="","",炉温记录27!I47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC46" s="22" t="e">
+      <c r="AC46" s="17" t="e">
         <f>IF(炉温记录28!I47="","",炉温记录28!I47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD46" s="22"/>
-      <c r="AE46" s="22"/>
-      <c r="AF46" s="22"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
       <c r="AG46" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:33">
+    <row r="47" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22" t="e">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17" t="e">
         <f>IF(炉温记录27!I48="","",炉温记录27!I48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC47" s="22" t="e">
+      <c r="AC47" s="17" t="e">
         <f>IF(炉温记录28!I48="","",炉温记录28!I48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
       <c r="AG47" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:33">
+    <row r="48" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="22" t="e">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17" t="e">
         <f>IF(炉温记录27!I49="","",炉温记录27!I49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC48" s="22" t="e">
+      <c r="AC48" s="17" t="e">
         <f>IF(炉温记录28!I49="","",炉温记录28!I49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD48" s="22"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="22"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="17"/>
       <c r="AG48" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:33">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A49" s="7">
         <v>46</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22" t="e">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="17"/>
+      <c r="AB49" s="17" t="e">
         <f>IF(炉温记录27!I50="","",炉温记录27!I50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC49" s="22" t="e">
+      <c r="AC49" s="17" t="e">
         <f>IF(炉温记录28!I50="","",炉温记录28!I50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD49" s="22"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
+      <c r="AD49" s="17"/>
+      <c r="AE49" s="17"/>
+      <c r="AF49" s="17"/>
       <c r="AG49" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:33">
+      <c r="AM49" s="1"/>
+      <c r="AQ49" s="1"/>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22" t="e">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17"/>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="17"/>
+      <c r="AA50" s="17"/>
+      <c r="AB50" s="17" t="e">
         <f>IF(炉温记录27!I51="","",炉温记录27!I51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC50" s="22" t="e">
+      <c r="AC50" s="17" t="e">
         <f>IF(炉温记录28!I51="","",炉温记录28!I51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
+      <c r="AD50" s="17"/>
+      <c r="AE50" s="17"/>
+      <c r="AF50" s="17"/>
       <c r="AG50" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:33">
+      <c r="AM50" s="1"/>
+      <c r="AQ50" s="1"/>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A51" s="7">
         <v>48</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="22"/>
-      <c r="AB51" s="22" t="e">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17"/>
+      <c r="AB51" s="17" t="e">
         <f>IF(炉温记录27!I52="","",炉温记录27!I52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC51" s="22" t="e">
+      <c r="AC51" s="17" t="e">
         <f>IF(炉温记录28!I52="","",炉温记录28!I52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD51" s="22"/>
-      <c r="AE51" s="22"/>
-      <c r="AF51" s="22"/>
+      <c r="AD51" s="17"/>
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="17"/>
       <c r="AG51" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:33">
+      <c r="AM51" s="1"/>
+      <c r="AQ51" s="1"/>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
         <v>49</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22" t="e">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17"/>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="17"/>
+      <c r="AA52" s="17"/>
+      <c r="AB52" s="17" t="e">
         <f>IF(炉温记录27!I53="","",炉温记录27!I53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC52" s="22" t="e">
+      <c r="AC52" s="17" t="e">
         <f>IF(炉温记录28!I53="","",炉温记录28!I53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
+      <c r="AD52" s="17"/>
+      <c r="AE52" s="17"/>
+      <c r="AF52" s="17"/>
       <c r="AG52" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:33">
+      <c r="AM52" s="1"/>
+      <c r="AQ52" s="1"/>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
         <v>50</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="22" t="e">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="17"/>
+      <c r="AB53" s="17" t="e">
         <f>IF(炉温记录27!I54="","",炉温记录27!I54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC53" s="22" t="e">
+      <c r="AC53" s="17" t="e">
         <f>IF(炉温记录28!I54="","",炉温记录28!I54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD53" s="22"/>
-      <c r="AE53" s="22"/>
-      <c r="AF53" s="22"/>
+      <c r="AD53" s="17"/>
+      <c r="AE53" s="17"/>
+      <c r="AF53" s="17"/>
       <c r="AG53" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:33">
+      <c r="AM53" s="1"/>
+      <c r="AQ53" s="1"/>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
         <v>51</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="22"/>
-      <c r="Z54" s="22"/>
-      <c r="AA54" s="22"/>
-      <c r="AB54" s="22" t="e">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="17" t="e">
         <f>IF(炉温记录27!I55="","",炉温记录27!I55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC54" s="22" t="e">
+      <c r="AC54" s="17" t="e">
         <f>IF(炉温记录28!I55="","",炉温记录28!I55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD54" s="22"/>
-      <c r="AE54" s="22"/>
-      <c r="AF54" s="22"/>
+      <c r="AD54" s="17"/>
+      <c r="AE54" s="17"/>
+      <c r="AF54" s="17"/>
       <c r="AG54" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:33">
+      <c r="AM54" s="1"/>
+      <c r="AQ54" s="1"/>
+    </row>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A55" s="7">
         <v>52</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="22"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="22"/>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="22" t="e">
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="17"/>
+      <c r="AA55" s="17"/>
+      <c r="AB55" s="17" t="e">
         <f>IF(炉温记录27!I56="","",炉温记录27!I56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC55" s="22" t="e">
+      <c r="AC55" s="17" t="e">
         <f>IF(炉温记录28!I56="","",炉温记录28!I56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD55" s="22"/>
-      <c r="AE55" s="22"/>
-      <c r="AF55" s="22"/>
+      <c r="AD55" s="17"/>
+      <c r="AE55" s="17"/>
+      <c r="AF55" s="17"/>
       <c r="AG55" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:33">
+      <c r="AM55" s="1"/>
+      <c r="AQ55" s="1"/>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A56" s="7">
         <v>53</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22" t="e">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="17"/>
+      <c r="AB56" s="17" t="e">
         <f>IF(炉温记录27!I57="","",炉温记录27!I57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC56" s="22" t="e">
+      <c r="AC56" s="17" t="e">
         <f>IF(炉温记录28!I57="","",炉温记录28!I57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
+      <c r="AD56" s="17"/>
+      <c r="AE56" s="17"/>
+      <c r="AF56" s="17"/>
       <c r="AG56" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:33">
+      <c r="AM56" s="1"/>
+      <c r="AQ56" s="1"/>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A57" s="7">
         <v>54</v>
       </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="22"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="22"/>
-      <c r="Z57" s="22"/>
-      <c r="AA57" s="22"/>
-      <c r="AB57" s="22" t="e">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="17"/>
+      <c r="AB57" s="17" t="e">
         <f>IF(炉温记录27!I58="","",炉温记录27!I58)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC57" s="22" t="e">
+      <c r="AC57" s="17" t="e">
         <f>IF(炉温记录28!I58="","",炉温记录28!I58)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD57" s="22"/>
-      <c r="AE57" s="22"/>
-      <c r="AF57" s="22"/>
+      <c r="AD57" s="17"/>
+      <c r="AE57" s="17"/>
+      <c r="AF57" s="17"/>
       <c r="AG57" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:33">
+      <c r="AM57" s="1"/>
+      <c r="AQ57" s="1"/>
+    </row>
+    <row r="58" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A58" s="7">
         <v>55</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="22"/>
-      <c r="AB58" s="22" t="e">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="17"/>
+      <c r="AB58" s="17" t="e">
         <f>IF(炉温记录27!I59="","",炉温记录27!I59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC58" s="22" t="e">
+      <c r="AC58" s="17" t="e">
         <f>IF(炉温记录28!I59="","",炉温记录28!I59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD58" s="22"/>
-      <c r="AE58" s="22"/>
-      <c r="AF58" s="22"/>
+      <c r="AD58" s="17"/>
+      <c r="AE58" s="17"/>
+      <c r="AF58" s="17"/>
       <c r="AG58" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:33">
+      <c r="AM58" s="1"/>
+      <c r="AQ58" s="1"/>
+    </row>
+    <row r="59" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
         <v>56</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22" t="e">
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="17"/>
+      <c r="AB59" s="17" t="e">
         <f>IF(炉温记录27!I60="","",炉温记录27!I60)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC59" s="22" t="e">
+      <c r="AC59" s="17" t="e">
         <f>IF(炉温记录28!I60="","",炉温记录28!I60)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD59" s="22"/>
-      <c r="AE59" s="22"/>
-      <c r="AF59" s="22"/>
+      <c r="AD59" s="17"/>
+      <c r="AE59" s="17"/>
+      <c r="AF59" s="17"/>
       <c r="AG59" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:33">
+      <c r="AM59" s="1"/>
+      <c r="AQ59" s="1"/>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>48</v>
       </c>
@@ -7072,8 +6492,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG60" s="7"/>
-    </row>
-    <row r="61" spans="39:43">
+      <c r="AM60" s="1"/>
+      <c r="AQ60" s="1"/>
+    </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.15">
       <c r="AM61" s="1"/>
       <c r="AQ61" s="1"/>
     </row>
@@ -7084,21 +6506,20 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="AB2:AG2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
@@ -7114,7 +6535,7 @@
     <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -7152,52 +6573,52 @@
       <c r="AE1" s="14"/>
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
-      <c r="AM1" s="13"/>
-      <c r="AQ1" s="13"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:33">
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18">
-        <f>_metadata!B1</f>
-        <v>43432.475215787</v>
-      </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="24" t="str">
+        <f>_metadata!B2</f>
+        <v>CK67-6#炉温记录从动态管控系统读取报表</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="21"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:33">
+      <c r="R2" s="22"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="23"/>
+      <c r="AM2" s="1"/>
+      <c r="AQ2" s="1"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -7297,8 +6718,10 @@
       <c r="AG3" s="15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:33">
+      <c r="AM3" s="1"/>
+      <c r="AQ3" s="1"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -7343,8 +6766,10 @@
         <f t="shared" ref="AG4:AG59" si="0">AVERAGE(B4:AF4)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:33">
+      <c r="AM4" s="1"/>
+      <c r="AQ4" s="1"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -7389,8 +6814,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:33">
+      <c r="AM5" s="1"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -7437,8 +6864,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:33">
+      <c r="AM6" s="1"/>
+      <c r="AQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -7483,8 +6912,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:33">
+      <c r="AM7" s="1"/>
+      <c r="AQ7" s="1"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -7529,8 +6960,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:33">
+      <c r="AM8" s="1"/>
+      <c r="AQ8" s="1"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -7575,8 +7008,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:33">
+      <c r="AM9" s="1"/>
+      <c r="AQ9" s="1"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -7621,8 +7056,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:33">
+      <c r="AM10" s="1"/>
+      <c r="AQ10" s="1"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -7667,8 +7104,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:33">
+      <c r="AM11" s="1"/>
+      <c r="AQ11" s="1"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -7713,8 +7152,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:33">
+      <c r="AM12" s="1"/>
+      <c r="AQ12" s="1"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -7759,8 +7200,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:33">
+      <c r="AM13" s="1"/>
+      <c r="AQ13" s="1"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -7805,8 +7248,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:33">
+      <c r="AM14" s="1"/>
+      <c r="AQ14" s="1"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -7851,8 +7296,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:33">
+      <c r="AM15" s="1"/>
+      <c r="AQ15" s="1"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -7897,8 +7344,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:33">
+      <c r="AM16" s="1"/>
+      <c r="AQ16" s="1"/>
+    </row>
+    <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -7944,7 +7393,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:33">
+    <row r="18" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -7990,7 +7439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:33">
+    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -8036,7 +7485,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:33">
+    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -8082,7 +7531,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:33">
+    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -8128,7 +7577,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:33">
+    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -8174,7 +7623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:33">
+    <row r="23" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -8220,7 +7669,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:33">
+    <row r="24" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -8266,7 +7715,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:33">
+    <row r="25" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -8312,7 +7761,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:33">
+    <row r="26" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -8358,7 +7807,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:33">
+    <row r="27" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -8404,7 +7853,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:33">
+    <row r="28" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>25</v>
       </c>
@@ -8450,7 +7899,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:33">
+    <row r="29" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>26</v>
       </c>
@@ -8496,7 +7945,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:33">
+    <row r="30" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>27</v>
       </c>
@@ -8542,7 +7991,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:33">
+    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>28</v>
       </c>
@@ -8588,7 +8037,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:33">
+    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>29</v>
       </c>
@@ -8634,7 +8083,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:33">
+    <row r="33" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>30</v>
       </c>
@@ -8680,7 +8129,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:33">
+    <row r="34" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
         <v>31</v>
       </c>
@@ -8726,7 +8175,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:33">
+    <row r="35" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>32</v>
       </c>
@@ -8772,7 +8221,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:33">
+    <row r="36" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>33</v>
       </c>
@@ -8818,7 +8267,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:33">
+    <row r="37" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>34</v>
       </c>
@@ -8864,7 +8313,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:33">
+    <row r="38" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>35</v>
       </c>
@@ -8910,7 +8359,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:33">
+    <row r="39" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
         <v>36</v>
       </c>
@@ -8956,7 +8405,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:33">
+    <row r="40" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
         <v>37</v>
       </c>
@@ -9002,7 +8451,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:33">
+    <row r="41" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>38</v>
       </c>
@@ -9048,7 +8497,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:33">
+    <row r="42" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7">
         <v>39</v>
       </c>
@@ -9094,7 +8543,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:33">
+    <row r="43" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
         <v>40</v>
       </c>
@@ -9140,7 +8589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:33">
+    <row r="44" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7">
         <v>41</v>
       </c>
@@ -9186,7 +8635,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:33">
+    <row r="45" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7">
         <v>42</v>
       </c>
@@ -9232,7 +8681,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:33">
+    <row r="46" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
         <v>43</v>
       </c>
@@ -9278,7 +8727,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:33">
+    <row r="47" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
         <v>44</v>
       </c>
@@ -9324,7 +8773,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:33">
+    <row r="48" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
         <v>45</v>
       </c>
@@ -9370,7 +8819,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:33">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A49" s="7">
         <v>46</v>
       </c>
@@ -9415,8 +8864,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:33">
+      <c r="AM49" s="1"/>
+      <c r="AQ49" s="1"/>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A50" s="7">
         <v>47</v>
       </c>
@@ -9461,8 +8912,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:33">
+      <c r="AM50" s="1"/>
+      <c r="AQ50" s="1"/>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A51" s="7">
         <v>48</v>
       </c>
@@ -9507,8 +8960,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:33">
+      <c r="AM51" s="1"/>
+      <c r="AQ51" s="1"/>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
         <v>49</v>
       </c>
@@ -9553,8 +9008,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:33">
+      <c r="AM52" s="1"/>
+      <c r="AQ52" s="1"/>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
         <v>50</v>
       </c>
@@ -9599,8 +9056,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:33">
+      <c r="AM53" s="1"/>
+      <c r="AQ53" s="1"/>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
         <v>51</v>
       </c>
@@ -9645,8 +9104,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:33">
+      <c r="AM54" s="1"/>
+      <c r="AQ54" s="1"/>
+    </row>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A55" s="7">
         <v>52</v>
       </c>
@@ -9691,8 +9152,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:33">
+      <c r="AM55" s="1"/>
+      <c r="AQ55" s="1"/>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A56" s="7">
         <v>53</v>
       </c>
@@ -9737,8 +9200,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:33">
+      <c r="AM56" s="1"/>
+      <c r="AQ56" s="1"/>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A57" s="7">
         <v>54</v>
       </c>
@@ -9783,8 +9248,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:33">
+      <c r="AM57" s="1"/>
+      <c r="AQ57" s="1"/>
+    </row>
+    <row r="58" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A58" s="7">
         <v>55</v>
       </c>
@@ -9829,8 +9296,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:33">
+      <c r="AM58" s="1"/>
+      <c r="AQ58" s="1"/>
+    </row>
+    <row r="59" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
         <v>56</v>
       </c>
@@ -9875,8 +9344,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:33">
+      <c r="AM59" s="1"/>
+      <c r="AQ59" s="1"/>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>48</v>
       </c>
@@ -10005,16 +9476,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG60" s="7"/>
-    </row>
-    <row r="61" spans="39:43">
+      <c r="AM60" s="1"/>
+      <c r="AQ60" s="1"/>
+    </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.15">
       <c r="AM61" s="1"/>
       <c r="AQ61" s="1"/>
     </row>
-    <row r="62" spans="39:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.15">
       <c r="AM62" s="1"/>
       <c r="AQ62" s="1"/>
     </row>
-    <row r="63" spans="39:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.15">
       <c r="AM63" s="1"/>
       <c r="AQ63" s="1"/>
     </row>
@@ -10025,21 +9498,20 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="AB2:AG2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XEI74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
@@ -10049,7 +9521,7 @@
     <col min="16364" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10076,30 +9548,30 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -10152,7 +9624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -10201,7 +9673,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>52</v>
       </c>
@@ -10236,7 +9708,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
@@ -10271,7 +9743,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>56</v>
       </c>
@@ -10306,7 +9778,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>58</v>
       </c>
@@ -10341,7 +9813,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
@@ -10376,7 +9848,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
@@ -10411,7 +9883,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
@@ -10446,7 +9918,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
@@ -10481,7 +9953,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -10516,7 +9988,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>69</v>
       </c>
@@ -10551,7 +10023,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>70</v>
       </c>
@@ -10586,7 +10058,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
@@ -10621,7 +10093,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
@@ -10656,7 +10128,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>76</v>
       </c>
@@ -10691,7 +10163,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>78</v>
       </c>
@@ -10726,7 +10198,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>80</v>
       </c>
@@ -10761,7 +10233,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>82</v>
       </c>
@@ -10796,7 +10268,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>84</v>
       </c>
@@ -10831,7 +10303,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>86</v>
       </c>
@@ -10866,7 +10338,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>88</v>
       </c>
@@ -10903,7 +10375,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="25" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>90</v>
       </c>
@@ -10940,7 +10412,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>91</v>
       </c>
@@ -10977,7 +10449,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="27" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>92</v>
       </c>
@@ -11014,7 +10486,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>94</v>
       </c>
@@ -11049,7 +10521,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="29" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>95</v>
       </c>
@@ -11086,7 +10558,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="30" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>97</v>
       </c>
@@ -11123,7 +10595,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>99</v>
       </c>
@@ -11158,7 +10630,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -11193,7 +10665,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="33" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>102</v>
       </c>
@@ -11228,7 +10700,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="34" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>103</v>
       </c>
@@ -11265,7 +10737,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="35" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>105</v>
       </c>
@@ -11302,7 +10774,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
@@ -11339,7 +10811,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="37" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>109</v>
       </c>
@@ -11376,7 +10848,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="38" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>111</v>
       </c>
@@ -11413,7 +10885,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="39" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>113</v>
       </c>
@@ -11450,7 +10922,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="40" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>116</v>
       </c>
@@ -11487,7 +10959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="41" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>118</v>
       </c>
@@ -11524,7 +10996,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="42" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>120</v>
       </c>
@@ -11561,7 +11033,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="43" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>121</v>
       </c>
@@ -11598,7 +11070,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="44" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>122</v>
       </c>
@@ -11635,7 +11107,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="45" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>125</v>
       </c>
@@ -11672,7 +11144,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="46" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>128</v>
       </c>
@@ -11709,7 +11181,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="47" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>130</v>
       </c>
@@ -11746,7 +11218,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="48" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>132</v>
       </c>
@@ -11783,7 +11255,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="49" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>133</v>
       </c>
@@ -11818,7 +11290,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="50" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>134</v>
       </c>
@@ -11855,7 +11327,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="51" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>136</v>
       </c>
@@ -11892,7 +11364,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="52" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>137</v>
       </c>
@@ -11929,7 +11401,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="53" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>139</v>
       </c>
@@ -11966,7 +11438,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="54" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>142</v>
       </c>
@@ -12001,7 +11473,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="55" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>143</v>
       </c>
@@ -12038,7 +11510,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="56" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>144</v>
       </c>
@@ -12075,7 +11547,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="57" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>146</v>
       </c>
@@ -12112,7 +11584,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="58" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>148</v>
       </c>
@@ -12149,7 +11621,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="59" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>149</v>
       </c>
@@ -12186,7 +11658,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="60" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>150</v>
       </c>
@@ -12221,184 +11693,184 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="61" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="8" t="e">
-        <f ca="1" t="shared" ref="B61:H61" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
+        <f t="shared" ref="B61:H61" ca="1" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="e">
-        <f ca="1" t="shared" ref="J61:P61" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
+        <f t="shared" ref="J61:P61" ca="1" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="8">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="P61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="62" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="8" t="e">
-        <f ca="1" t="shared" ref="B62:H62" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
+        <f t="shared" ref="B62:H62" ca="1" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="e">
-        <f ca="1" t="shared" ref="J62:P62" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
+        <f t="shared" ref="J62:P62" ca="1" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="8">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="P62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="63" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="9" t="e">
-        <f ca="1" t="shared" ref="B63:G63" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
+        <f t="shared" ref="B63:G63" ca="1" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="e">
-        <f ca="1" t="shared" ref="J63:O63" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
+        <f t="shared" ref="J63:O63" ca="1" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O63" s="9" t="str">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>↑0↓2</v>
       </c>
       <c r="P63" s="9" t="s">
@@ -12406,7 +11878,7 @@
       </c>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="64" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>31</v>
       </c>
@@ -12469,7 +11941,7 @@
       </c>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="65" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>32</v>
       </c>
@@ -12532,7 +12004,7 @@
       </c>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="66" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>12</v>
       </c>
@@ -12594,7 +12066,7 @@
       </c>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="67" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>33</v>
       </c>
@@ -12643,7 +12115,7 @@
       </c>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="68" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>34</v>
       </c>
@@ -12706,10 +12178,10 @@
       </c>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="13.5" spans="9:9">
+    <row r="69" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="I69" s="12"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="70" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
         <v>35</v>
@@ -12733,7 +12205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="71" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C71" s="7" t="s">
         <v>37</v>
       </c>
@@ -12746,7 +12218,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F71" s="11" t="e">
-        <f ca="1" t="shared" ref="F71:F73" si="18">AVERAGE(D71:E71)</f>
+        <f t="shared" ref="F71:F73" ca="1" si="18">AVERAGE(D71:E71)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G71" s="11"/>
@@ -12767,7 +12239,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="72" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C72" s="7" t="s">
         <v>39</v>
       </c>
@@ -12780,7 +12252,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F72" s="11" t="e">
-        <f ca="1" t="shared" si="18"/>
+        <f t="shared" ca="1" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G72" s="7"/>
@@ -12801,7 +12273,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="73" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C73" s="7" t="s">
         <v>41</v>
       </c>
@@ -12814,7 +12286,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F73" s="11" t="e">
-        <f ca="1" t="shared" si="18"/>
+        <f t="shared" ca="1" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G73" s="7"/>
@@ -12835,7 +12307,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="74" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C74" s="8" t="s">
         <v>43</v>
       </c>
@@ -12862,31 +12334,28 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>152</v>
       </c>
       <c r="B1">
-        <v>43432.475215787</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>43432.475215787003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -12894,7 +12363,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -12902,7 +12371,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>157</v>
       </c>
@@ -12910,7 +12379,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -12918,7 +12387,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -12926,7 +12395,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -12934,7 +12403,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -12942,7 +12411,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -12950,7 +12419,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -12958,7 +12427,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>171</v>
       </c>
@@ -12967,21 +12436,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XEI74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
@@ -12991,7 +12459,7 @@
     <col min="16364" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13018,30 +12486,30 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -13094,7 +12562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -13143,7 +12611,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>52</v>
       </c>
@@ -13176,7 +12644,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
@@ -13209,7 +12677,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>56</v>
       </c>
@@ -13242,7 +12710,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>58</v>
       </c>
@@ -13275,7 +12743,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
@@ -13308,7 +12776,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
@@ -13341,7 +12809,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
@@ -13374,7 +12842,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
@@ -13407,7 +12875,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -13440,7 +12908,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>69</v>
       </c>
@@ -13473,7 +12941,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>70</v>
       </c>
@@ -13506,7 +12974,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
@@ -13539,7 +13007,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
@@ -13572,7 +13040,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>76</v>
       </c>
@@ -13605,7 +13073,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>78</v>
       </c>
@@ -13638,7 +13106,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>80</v>
       </c>
@@ -13671,7 +13139,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>82</v>
       </c>
@@ -13704,7 +13172,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>84</v>
       </c>
@@ -13737,7 +13205,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>86</v>
       </c>
@@ -13770,7 +13238,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>88</v>
       </c>
@@ -13803,7 +13271,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="25" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>90</v>
       </c>
@@ -13836,7 +13304,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>91</v>
       </c>
@@ -13869,7 +13337,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="27" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>92</v>
       </c>
@@ -13902,7 +13370,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>94</v>
       </c>
@@ -13935,7 +13403,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="29" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>95</v>
       </c>
@@ -13968,7 +13436,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="30" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>97</v>
       </c>
@@ -14001,7 +13469,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>99</v>
       </c>
@@ -14034,7 +13502,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -14067,7 +13535,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="33" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>102</v>
       </c>
@@ -14100,7 +13568,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="34" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>103</v>
       </c>
@@ -14133,7 +13601,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="35" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>105</v>
       </c>
@@ -14166,7 +13634,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
@@ -14199,7 +13667,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="37" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>109</v>
       </c>
@@ -14232,7 +13700,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="38" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>111</v>
       </c>
@@ -14265,7 +13733,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="39" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>113</v>
       </c>
@@ -14298,7 +13766,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="40" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>116</v>
       </c>
@@ -14331,7 +13799,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="41" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>118</v>
       </c>
@@ -14364,7 +13832,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="42" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>120</v>
       </c>
@@ -14397,7 +13865,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="43" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>121</v>
       </c>
@@ -14430,7 +13898,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="44" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>122</v>
       </c>
@@ -14463,7 +13931,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="45" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>125</v>
       </c>
@@ -14496,7 +13964,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="46" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>128</v>
       </c>
@@ -14529,7 +13997,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="47" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>130</v>
       </c>
@@ -14562,7 +14030,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="48" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>132</v>
       </c>
@@ -14595,7 +14063,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="49" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>133</v>
       </c>
@@ -14628,7 +14096,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="50" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>134</v>
       </c>
@@ -14661,7 +14129,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="51" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>136</v>
       </c>
@@ -14694,7 +14162,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="52" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>137</v>
       </c>
@@ -14727,7 +14195,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="53" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>139</v>
       </c>
@@ -14760,7 +14228,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="54" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>142</v>
       </c>
@@ -14793,7 +14261,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="55" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>143</v>
       </c>
@@ -14826,7 +14294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="56" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>144</v>
       </c>
@@ -14859,7 +14327,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="57" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>146</v>
       </c>
@@ -14892,7 +14360,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="58" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>148</v>
       </c>
@@ -14925,7 +14393,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="59" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>149</v>
       </c>
@@ -14958,7 +14426,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="60" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>150</v>
       </c>
@@ -14991,184 +14459,184 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="61" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="8" t="e">
-        <f ca="1" t="shared" ref="B61:H61" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
+        <f t="shared" ref="B61:H61" ca="1" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="e">
-        <f ca="1" t="shared" ref="J61:P61" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
+        <f t="shared" ref="J61:P61" ca="1" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="8">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="P61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="62" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="8" t="e">
-        <f ca="1" t="shared" ref="B62:H62" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
+        <f t="shared" ref="B62:H62" ca="1" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="e">
-        <f ca="1" t="shared" ref="J62:P62" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
+        <f t="shared" ref="J62:P62" ca="1" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="8">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="P62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="63" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="9" t="e">
-        <f ca="1" t="shared" ref="B63:G63" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
+        <f t="shared" ref="B63:G63" ca="1" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="e">
-        <f ca="1" t="shared" ref="J63:O63" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
+        <f t="shared" ref="J63:O63" ca="1" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O63" s="9" t="str">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>↑0↓2</v>
       </c>
       <c r="P63" s="9" t="s">
@@ -15176,7 +14644,7 @@
       </c>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="64" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>31</v>
       </c>
@@ -15239,7 +14707,7 @@
       </c>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="65" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>32</v>
       </c>
@@ -15302,7 +14770,7 @@
       </c>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="66" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>12</v>
       </c>
@@ -15364,7 +14832,7 @@
       </c>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="67" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>33</v>
       </c>
@@ -15413,7 +14881,7 @@
       </c>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="68" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>34</v>
       </c>
@@ -15476,10 +14944,10 @@
       </c>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="13.5" spans="9:9">
+    <row r="69" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="I69" s="12"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="70" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
         <v>35</v>
@@ -15503,7 +14971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="71" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C71" s="7" t="s">
         <v>37</v>
       </c>
@@ -15516,7 +14984,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F71" s="11" t="e">
-        <f ca="1" t="shared" ref="F71:F73" si="18">AVERAGE(D71:E71)</f>
+        <f t="shared" ref="F71:F73" ca="1" si="18">AVERAGE(D71:E71)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G71" s="11"/>
@@ -15537,7 +15005,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="72" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C72" s="7" t="s">
         <v>39</v>
       </c>
@@ -15550,7 +15018,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F72" s="11" t="e">
-        <f ca="1" t="shared" si="18"/>
+        <f t="shared" ca="1" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G72" s="7"/>
@@ -15571,7 +15039,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="73" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C73" s="7" t="s">
         <v>41</v>
       </c>
@@ -15584,7 +15052,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F73" s="11" t="e">
-        <f ca="1" t="shared" si="18"/>
+        <f t="shared" ca="1" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G73" s="7"/>
@@ -15605,7 +15073,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="74" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C74" s="8" t="s">
         <v>43</v>
       </c>
@@ -15632,7 +15100,7 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-6#炉温记录报表设计.xlsx
+++ b/excel/finished/焦化/CK67-6#炉温记录报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="_model" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>日期</t>
   </si>
@@ -543,12 +543,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,7 +563,6 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -567,25 +570,160 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,12 +732,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -659,14 +983,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -713,39 +1279,83 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1007,19 +1617,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEI74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1" collapsed="1"/>
@@ -1029,7 +1639,7 @@
     <col min="16364" max="16384" width="9" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1056,30 +1666,30 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A2" s="3"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1132,7 +1742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1177,7 +1787,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1208,7 +1818,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1239,7 +1849,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1270,7 +1880,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1301,7 +1911,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1332,7 +1942,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1363,7 +1973,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="11" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1394,7 +2004,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1425,7 +2035,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1456,7 +2066,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1487,7 +2097,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="15" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1518,7 +2128,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="16" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1549,7 +2159,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="17" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1580,7 +2190,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="18" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1611,7 +2221,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1642,7 +2252,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="20" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1673,7 +2283,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="21" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1704,7 +2314,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="22" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1735,7 +2345,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="23" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1766,7 +2376,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="24" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1797,7 +2407,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="25" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1828,7 +2438,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="26" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1859,7 +2469,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="27" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1890,7 +2500,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="28" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1921,7 +2531,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="29" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1952,7 +2562,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="30" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1983,7 +2593,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="31" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2014,7 +2624,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="32" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2045,7 +2655,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="33" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2076,7 +2686,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="34" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2107,7 +2717,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="35" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2138,7 +2748,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="36" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2169,7 +2779,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="37" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2200,7 +2810,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="38" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2231,7 +2841,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="39" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2262,7 +2872,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="40" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2293,7 +2903,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="41" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2324,7 +2934,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="42" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2355,7 +2965,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="43" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2386,7 +2996,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="44" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2417,7 +3027,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="45" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2448,7 +3058,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="46" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2479,7 +3089,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="47" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2510,7 +3120,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="48" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2541,7 +3151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="49" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -2572,7 +3182,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="50" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -2603,7 +3213,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="51" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2634,7 +3244,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="52" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -2665,7 +3275,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="53" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2696,7 +3306,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="54" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2727,7 +3337,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="55" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2758,7 +3368,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="56" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2789,7 +3399,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="57" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2820,7 +3430,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="58" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2851,7 +3461,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="59" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -2882,7 +3492,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="60" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -2913,184 +3523,184 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="61" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A61" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="8" t="e">
-        <f t="shared" ref="B61:H61" ca="1" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
+        <f ca="1" t="shared" ref="B61:H61" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="e">
-        <f t="shared" ref="J61:P61" ca="1" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
+        <f ca="1" t="shared" ref="J61:P61" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="8" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L61" s="8" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" s="8" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N61" s="8" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P61" s="8" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="62" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A62" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="8" t="e">
-        <f t="shared" ref="B62:H62" ca="1" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
+        <f ca="1" t="shared" ref="B62:H62" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="e">
-        <f t="shared" ref="J62:P62" ca="1" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
+        <f ca="1" t="shared" ref="J62:P62" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K62" s="8" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L62" s="8" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="8" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N62" s="8" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="8">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="P62" s="8" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="63" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A63" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="9" t="e">
-        <f t="shared" ref="B63:G63" ca="1" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
+        <f ca="1" t="shared" ref="B63:G63" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C63" s="9" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="9" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="9" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F63" s="9" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G63" s="9" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="e">
-        <f t="shared" ref="J63:O63" ca="1" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
+        <f ca="1" t="shared" ref="J63:O63" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K63" s="9" t="e">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L63" s="9" t="e">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M63" s="9" t="e">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N63" s="9" t="e">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O63" s="9" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1" t="shared" si="9"/>
         <v>↑0↓2</v>
       </c>
       <c r="P63" s="9" t="s">
@@ -3098,7 +3708,7 @@
       </c>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="64" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A64" s="7" t="s">
         <v>31</v>
       </c>
@@ -3161,7 +3771,7 @@
       </c>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="65" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A65" s="7" t="s">
         <v>32</v>
       </c>
@@ -3224,7 +3834,7 @@
       </c>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="66" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A66" s="7" t="s">
         <v>12</v>
       </c>
@@ -3286,7 +3896,7 @@
       </c>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="67" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A67" s="7" t="s">
         <v>33</v>
       </c>
@@ -3335,7 +3945,7 @@
       </c>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="68" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A68" s="7" t="s">
         <v>34</v>
       </c>
@@ -3398,10 +4008,10 @@
       </c>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="69" s="1" customFormat="1" ht="13.5" spans="9:9">
       <c r="I69" s="12"/>
     </row>
-    <row r="70" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="70" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
         <v>35</v>
@@ -3425,7 +4035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="71" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C71" s="7" t="s">
         <v>37</v>
       </c>
@@ -3438,7 +4048,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F71" s="11" t="e">
-        <f t="shared" ref="F71:F73" ca="1" si="18">AVERAGE(D71:E71)</f>
+        <f ca="1" t="shared" ref="F71:F73" si="18">AVERAGE(D71:E71)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G71" s="11"/>
@@ -3459,7 +4069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="72" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C72" s="7" t="s">
         <v>39</v>
       </c>
@@ -3472,7 +4082,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F72" s="11" t="e">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1" t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G72" s="7"/>
@@ -3493,7 +4103,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="73" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C73" s="7" t="s">
         <v>41</v>
       </c>
@@ -3506,7 +4116,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F73" s="11" t="e">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1" t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G73" s="7"/>
@@ -3527,7 +4137,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="74" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C74" s="8" t="s">
         <v>43</v>
       </c>
@@ -3554,20 +4164,21 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AQ61"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
@@ -3583,7 +4194,7 @@
     <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:33">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -3622,49 +4233,49 @@
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:33">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="23">
         <f>_metadata!B1</f>
-        <v>43432.475215787003</v>
-      </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22" t="s">
+        <v>43432.475215787</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="23"/>
-    </row>
-    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R2" s="19"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="21"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:33">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -3765,2117 +4376,2117 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="1" customFormat="1" spans="1:33">
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17" t="e">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22" t="e">
         <f>IF(炉温记录27!I5="","",炉温记录27!I5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="17" t="e">
+      <c r="AC4" s="22" t="e">
         <f>IF(炉温记录28!I5="","",炉温记录28!I5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
       <c r="AG4" s="8" t="e">
         <f t="shared" ref="AG4:AG59" si="0">AVERAGE(I4:AF4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" spans="1:33">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17" t="e">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22" t="e">
         <f>IF(炉温记录27!I6="","",炉温记录27!I6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC5" s="17" t="e">
+      <c r="AC5" s="22" t="e">
         <f>IF(炉温记录28!I6="","",炉温记录28!I6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
       <c r="AG5" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" spans="1:33">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17" t="e">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22" t="e">
         <f>IF(炉温记录27!I7="","",炉温记录27!I7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC6" s="17" t="e">
+      <c r="AC6" s="22" t="e">
         <f>IF(炉温记录28!I7="","",炉温记录28!I7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
       <c r="AG6" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" spans="1:33">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17" t="e">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22" t="e">
         <f>IF(炉温记录27!I8="","",炉温记录27!I8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC7" s="17" t="e">
+      <c r="AC7" s="22" t="e">
         <f>IF(炉温记录28!I8="","",炉温记录28!I8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
       <c r="AG7" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="1" customFormat="1" spans="1:33">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17" t="e">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22" t="e">
         <f>IF(炉温记录27!I9="","",炉温记录27!I9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="17" t="e">
+      <c r="AC8" s="22" t="e">
         <f>IF(炉温记录28!I9="","",炉温记录28!I9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
       <c r="AG8" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="1" customFormat="1" spans="1:33">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17" t="e">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22" t="e">
         <f>IF(炉温记录27!I10="","",炉温记录27!I10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC9" s="17" t="e">
+      <c r="AC9" s="22" t="e">
         <f>IF(炉温记录28!I10="","",炉温记录28!I10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
       <c r="AG9" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" s="1" customFormat="1" spans="1:33">
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17" t="e">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22" t="e">
         <f>IF(炉温记录27!I11="","",炉温记录27!I11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC10" s="17" t="e">
+      <c r="AC10" s="22" t="e">
         <f>IF(炉温记录28!I11="","",炉温记录28!I11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
       <c r="AG10" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" s="1" customFormat="1" spans="1:33">
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17" t="e">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22" t="e">
         <f>IF(炉温记录27!I12="","",炉温记录27!I12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="17" t="e">
+      <c r="AC11" s="22" t="e">
         <f>IF(炉温记录28!I12="","",炉温记录28!I12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
       <c r="AG11" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" s="1" customFormat="1" spans="1:33">
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17" t="e">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22" t="e">
         <f>IF(炉温记录27!I13="","",炉温记录27!I13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="17" t="e">
+      <c r="AC12" s="22" t="e">
         <f>IF(炉温记录28!I13="","",炉温记录28!I13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
       <c r="AG12" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" s="1" customFormat="1" spans="1:33">
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17" t="e">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22" t="e">
         <f>IF(炉温记录27!I14="","",炉温记录27!I14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC13" s="17" t="e">
+      <c r="AC13" s="22" t="e">
         <f>IF(炉温记录28!I14="","",炉温记录28!I14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
       <c r="AG13" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" s="1" customFormat="1" spans="1:33">
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17" t="e">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22" t="e">
         <f>IF(炉温记录27!I15="","",炉温记录27!I15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC14" s="17" t="e">
+      <c r="AC14" s="22" t="e">
         <f>IF(炉温记录28!I15="","",炉温记录28!I15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
       <c r="AG14" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" s="1" customFormat="1" spans="1:33">
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17" t="e">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22" t="e">
         <f>IF(炉温记录27!I16="","",炉温记录27!I16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC15" s="17" t="e">
+      <c r="AC15" s="22" t="e">
         <f>IF(炉温记录28!I16="","",炉温记录28!I16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
       <c r="AG15" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" s="1" customFormat="1" spans="1:33">
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17" t="e">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22" t="e">
         <f>IF(炉温记录27!I17="","",炉温记录27!I17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC16" s="17" t="e">
+      <c r="AC16" s="22" t="e">
         <f>IF(炉温记录28!I17="","",炉温记录28!I17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
       <c r="AG16" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" s="1" customFormat="1" spans="1:33">
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17" t="e">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22" t="e">
         <f>IF(炉温记录27!I18="","",炉温记录27!I18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC17" s="17" t="e">
+      <c r="AC17" s="22" t="e">
         <f>IF(炉温记录28!I18="","",炉温记录28!I18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
       <c r="AG17" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" s="1" customFormat="1" spans="1:33">
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17" t="e">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22" t="e">
         <f>IF(炉温记录27!I19="","",炉温记录27!I19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC18" s="17" t="e">
+      <c r="AC18" s="22" t="e">
         <f>IF(炉温记录28!I19="","",炉温记录28!I19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
       <c r="AG18" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" spans="1:33">
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17" t="e">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22" t="e">
         <f>IF(炉温记录27!I20="","",炉温记录27!I20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC19" s="17" t="e">
+      <c r="AC19" s="22" t="e">
         <f>IF(炉温记录28!I20="","",炉温记录28!I20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
       <c r="AG19" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" s="1" customFormat="1" spans="1:33">
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17" t="e">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22" t="e">
         <f>IF(炉温记录27!I21="","",炉温记录27!I21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC20" s="17" t="e">
+      <c r="AC20" s="22" t="e">
         <f>IF(炉温记录28!I21="","",炉温记录28!I21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
       <c r="AG20" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" s="1" customFormat="1" spans="1:33">
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17" t="e">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22" t="e">
         <f>IF(炉温记录27!I22="","",炉温记录27!I22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC21" s="17" t="e">
+      <c r="AC21" s="22" t="e">
         <f>IF(炉温记录28!I22="","",炉温记录28!I22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
       <c r="AG21" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" s="1" customFormat="1" spans="1:33">
       <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17" t="e">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22" t="e">
         <f>IF(炉温记录27!I23="","",炉温记录27!I23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC22" s="17" t="e">
+      <c r="AC22" s="22" t="e">
         <f>IF(炉温记录28!I23="","",炉温记录28!I23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
       <c r="AG22" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" s="1" customFormat="1" spans="1:33">
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17" t="e">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22" t="e">
         <f>IF(炉温记录27!I24="","",炉温记录27!I24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC23" s="17" t="e">
+      <c r="AC23" s="22" t="e">
         <f>IF(炉温记录28!I24="","",炉温记录28!I24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
       <c r="AG23" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" s="1" customFormat="1" spans="1:33">
       <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17" t="e">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22" t="e">
         <f>IF(炉温记录27!I25="","",炉温记录27!I25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC24" s="17" t="e">
+      <c r="AC24" s="22" t="e">
         <f>IF(炉温记录28!I25="","",炉温记录28!I25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
       <c r="AG24" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" s="1" customFormat="1" spans="1:33">
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17" t="e">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22" t="e">
         <f>IF(炉温记录27!I26="","",炉温记录27!I26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC25" s="17" t="e">
+      <c r="AC25" s="22" t="e">
         <f>IF(炉温记录28!I26="","",炉温记录28!I26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
       <c r="AG25" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" s="1" customFormat="1" spans="1:33">
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17" t="e">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22" t="e">
         <f>IF(炉温记录27!I27="","",炉温记录27!I27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC26" s="17" t="e">
+      <c r="AC26" s="22" t="e">
         <f>IF(炉温记录28!I27="","",炉温记录28!I27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
       <c r="AG26" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" s="1" customFormat="1" spans="1:33">
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17" t="e">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22" t="e">
         <f>IF(炉温记录27!I28="","",炉温记录27!I28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC27" s="17" t="e">
+      <c r="AC27" s="22" t="e">
         <f>IF(炉温记录28!I28="","",炉温记录28!I28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
       <c r="AG27" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" s="1" customFormat="1" spans="1:33">
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17" t="e">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22" t="e">
         <f>IF(炉温记录27!I29="","",炉温记录27!I29)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC28" s="17" t="e">
+      <c r="AC28" s="22" t="e">
         <f>IF(炉温记录28!I29="","",炉温记录28!I29)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
       <c r="AG28" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" s="1" customFormat="1" spans="1:33">
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17" t="e">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22" t="e">
         <f>IF(炉温记录27!I30="","",炉温记录27!I30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC29" s="17" t="e">
+      <c r="AC29" s="22" t="e">
         <f>IF(炉温记录28!I30="","",炉温记录28!I30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
       <c r="AG29" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" s="1" customFormat="1" spans="1:33">
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17" t="e">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22" t="e">
         <f>IF(炉温记录27!I31="","",炉温记录27!I31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC30" s="17" t="e">
+      <c r="AC30" s="22" t="e">
         <f>IF(炉温记录28!I31="","",炉温记录28!I31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
       <c r="AG30" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" s="1" customFormat="1" spans="1:33">
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17" t="e">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22" t="e">
         <f>IF(炉温记录27!I32="","",炉温记录27!I32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC31" s="17" t="e">
+      <c r="AC31" s="22" t="e">
         <f>IF(炉温记录28!I32="","",炉温记录28!I32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
       <c r="AG31" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" s="1" customFormat="1" spans="1:33">
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17" t="e">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22" t="e">
         <f>IF(炉温记录27!I33="","",炉温记录27!I33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC32" s="17" t="e">
+      <c r="AC32" s="22" t="e">
         <f>IF(炉温记录28!I33="","",炉温记录28!I33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
       <c r="AG32" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" s="1" customFormat="1" spans="1:33">
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17" t="e">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22" t="e">
         <f>IF(炉温记录27!I34="","",炉温记录27!I34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC33" s="17" t="e">
+      <c r="AC33" s="22" t="e">
         <f>IF(炉温记录28!I34="","",炉温记录28!I34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
       <c r="AG33" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" s="1" customFormat="1" spans="1:33">
       <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17" t="e">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22" t="e">
         <f>IF(炉温记录27!I35="","",炉温记录27!I35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC34" s="17" t="e">
+      <c r="AC34" s="22" t="e">
         <f>IF(炉温记录28!I35="","",炉温记录28!I35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
       <c r="AG34" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" s="1" customFormat="1" spans="1:33">
       <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17" t="e">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22" t="e">
         <f>IF(炉温记录27!I36="","",炉温记录27!I36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC35" s="17" t="e">
+      <c r="AC35" s="22" t="e">
         <f>IF(炉温记录28!I36="","",炉温记录28!I36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
       <c r="AG35" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" s="1" customFormat="1" spans="1:33">
       <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17" t="e">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22" t="e">
         <f>IF(炉温记录27!I37="","",炉温记录27!I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC36" s="17" t="e">
+      <c r="AC36" s="22" t="e">
         <f>IF(炉温记录28!I37="","",炉温记录28!I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="17"/>
-      <c r="AF36" s="17"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
       <c r="AG36" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" s="1" customFormat="1" spans="1:33">
       <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17" t="e">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22" t="e">
         <f>IF(炉温记录27!I38="","",炉温记录27!I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC37" s="17" t="e">
+      <c r="AC37" s="22" t="e">
         <f>IF(炉温记录28!I38="","",炉温记录28!I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
       <c r="AG37" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" s="1" customFormat="1" spans="1:33">
       <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17" t="e">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22" t="e">
         <f>IF(炉温记录27!I39="","",炉温记录27!I39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC38" s="17" t="e">
+      <c r="AC38" s="22" t="e">
         <f>IF(炉温记录28!I39="","",炉温记录28!I39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
       <c r="AG38" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" s="1" customFormat="1" spans="1:33">
       <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17" t="e">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22" t="e">
         <f>IF(炉温记录27!I40="","",炉温记录27!I40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC39" s="17" t="e">
+      <c r="AC39" s="22" t="e">
         <f>IF(炉温记录28!I40="","",炉温记录28!I40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
-      <c r="AF39" s="17"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
       <c r="AG39" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" s="1" customFormat="1" spans="1:33">
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17" t="e">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22" t="e">
         <f>IF(炉温记录27!I41="","",炉温记录27!I41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC40" s="17" t="e">
+      <c r="AC40" s="22" t="e">
         <f>IF(炉温记录28!I41="","",炉温记录28!I41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
       <c r="AG40" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" s="1" customFormat="1" spans="1:33">
       <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17" t="e">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22" t="e">
         <f>IF(炉温记录27!I42="","",炉温记录27!I42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC41" s="17" t="e">
+      <c r="AC41" s="22" t="e">
         <f>IF(炉温记录28!I42="","",炉温记录28!I42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD41" s="17"/>
-      <c r="AE41" s="17"/>
-      <c r="AF41" s="17"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
       <c r="AG41" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" s="1" customFormat="1" spans="1:33">
       <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17" t="e">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22" t="e">
         <f>IF(炉温记录27!I43="","",炉温记录27!I43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC42" s="17" t="e">
+      <c r="AC42" s="22" t="e">
         <f>IF(炉温记录28!I43="","",炉温记录28!I43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD42" s="17"/>
-      <c r="AE42" s="17"/>
-      <c r="AF42" s="17"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
       <c r="AG42" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" s="1" customFormat="1" spans="1:33">
       <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17" t="e">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22" t="e">
         <f>IF(炉温记录27!I44="","",炉温记录27!I44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC43" s="17" t="e">
+      <c r="AC43" s="22" t="e">
         <f>IF(炉温记录28!I44="","",炉温记录28!I44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD43" s="17"/>
-      <c r="AE43" s="17"/>
-      <c r="AF43" s="17"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
       <c r="AG43" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" s="1" customFormat="1" spans="1:33">
       <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="17"/>
-      <c r="AB44" s="17" t="e">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22" t="e">
         <f>IF(炉温记录27!I45="","",炉温记录27!I45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC44" s="17" t="e">
+      <c r="AC44" s="22" t="e">
         <f>IF(炉温记录28!I45="","",炉温记录28!I45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD44" s="17"/>
-      <c r="AE44" s="17"/>
-      <c r="AF44" s="17"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="22"/>
       <c r="AG44" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" s="1" customFormat="1" spans="1:33">
       <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="17" t="e">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22" t="e">
         <f>IF(炉温记录27!I46="","",炉温记录27!I46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC45" s="17" t="e">
+      <c r="AC45" s="22" t="e">
         <f>IF(炉温记录28!I46="","",炉温记录28!I46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD45" s="17"/>
-      <c r="AE45" s="17"/>
-      <c r="AF45" s="17"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="22"/>
+      <c r="AF45" s="22"/>
       <c r="AG45" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" s="1" customFormat="1" spans="1:33">
       <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
-      <c r="AA46" s="17"/>
-      <c r="AB46" s="17" t="e">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22" t="e">
         <f>IF(炉温记录27!I47="","",炉温记录27!I47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC46" s="17" t="e">
+      <c r="AC46" s="22" t="e">
         <f>IF(炉温记录28!I47="","",炉温记录28!I47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD46" s="17"/>
-      <c r="AE46" s="17"/>
-      <c r="AF46" s="17"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
       <c r="AG46" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" s="1" customFormat="1" spans="1:33">
       <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="17"/>
-      <c r="AA47" s="17"/>
-      <c r="AB47" s="17" t="e">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22" t="e">
         <f>IF(炉温记录27!I48="","",炉温记录27!I48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC47" s="17" t="e">
+      <c r="AC47" s="22" t="e">
         <f>IF(炉温记录28!I48="","",炉温记录28!I48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD47" s="17"/>
-      <c r="AE47" s="17"/>
-      <c r="AF47" s="17"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
       <c r="AG47" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" s="1" customFormat="1" spans="1:33">
       <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="17"/>
-      <c r="AB48" s="17" t="e">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="22" t="e">
         <f>IF(炉温记录27!I49="","",炉温记录27!I49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC48" s="17" t="e">
+      <c r="AC48" s="22" t="e">
         <f>IF(炉温记录28!I49="","",炉温记录28!I49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD48" s="17"/>
-      <c r="AE48" s="17"/>
-      <c r="AF48" s="17"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="22"/>
+      <c r="AF48" s="22"/>
       <c r="AG48" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:43">
       <c r="A49" s="7">
         <v>46</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="17"/>
-      <c r="AA49" s="17"/>
-      <c r="AB49" s="17" t="e">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22" t="e">
         <f>IF(炉温记录27!I50="","",炉温记录27!I50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC49" s="17" t="e">
+      <c r="AC49" s="22" t="e">
         <f>IF(炉温记录28!I50="","",炉温记录28!I50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD49" s="17"/>
-      <c r="AE49" s="17"/>
-      <c r="AF49" s="17"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
       <c r="AG49" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5883,47 +6494,47 @@
       <c r="AM49" s="1"/>
       <c r="AQ49" s="1"/>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:43">
       <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="17" t="e">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="22" t="e">
         <f>IF(炉温记录27!I51="","",炉温记录27!I51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC50" s="17" t="e">
+      <c r="AC50" s="22" t="e">
         <f>IF(炉温记录28!I51="","",炉温记录28!I51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="17"/>
-      <c r="AF50" s="17"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="22"/>
+      <c r="AF50" s="22"/>
       <c r="AG50" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5931,47 +6542,47 @@
       <c r="AM50" s="1"/>
       <c r="AQ50" s="1"/>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:43">
       <c r="A51" s="7">
         <v>48</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="17" t="e">
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22" t="e">
         <f>IF(炉温记录27!I52="","",炉温记录27!I52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC51" s="17" t="e">
+      <c r="AC51" s="22" t="e">
         <f>IF(炉温记录28!I52="","",炉温记录28!I52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD51" s="17"/>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
+      <c r="AD51" s="22"/>
+      <c r="AE51" s="22"/>
+      <c r="AF51" s="22"/>
       <c r="AG51" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5979,47 +6590,47 @@
       <c r="AM51" s="1"/>
       <c r="AQ51" s="1"/>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:43">
       <c r="A52" s="7">
         <v>49</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="17"/>
-      <c r="AB52" s="17" t="e">
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="22" t="e">
         <f>IF(炉温记录27!I53="","",炉温记录27!I53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC52" s="17" t="e">
+      <c r="AC52" s="22" t="e">
         <f>IF(炉温记录28!I53="","",炉温记录28!I53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD52" s="17"/>
-      <c r="AE52" s="17"/>
-      <c r="AF52" s="17"/>
+      <c r="AD52" s="22"/>
+      <c r="AE52" s="22"/>
+      <c r="AF52" s="22"/>
       <c r="AG52" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6027,47 +6638,47 @@
       <c r="AM52" s="1"/>
       <c r="AQ52" s="1"/>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:43">
       <c r="A53" s="7">
         <v>50</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="17"/>
-      <c r="AB53" s="17" t="e">
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22" t="e">
         <f>IF(炉温记录27!I54="","",炉温记录27!I54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC53" s="17" t="e">
+      <c r="AC53" s="22" t="e">
         <f>IF(炉温记录28!I54="","",炉温记录28!I54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD53" s="17"/>
-      <c r="AE53" s="17"/>
-      <c r="AF53" s="17"/>
+      <c r="AD53" s="22"/>
+      <c r="AE53" s="22"/>
+      <c r="AF53" s="22"/>
       <c r="AG53" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6075,47 +6686,47 @@
       <c r="AM53" s="1"/>
       <c r="AQ53" s="1"/>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:43">
       <c r="A54" s="7">
         <v>51</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="17"/>
-      <c r="AA54" s="17"/>
-      <c r="AB54" s="17" t="e">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="22"/>
+      <c r="X54" s="22"/>
+      <c r="Y54" s="22"/>
+      <c r="Z54" s="22"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="22" t="e">
         <f>IF(炉温记录27!I55="","",炉温记录27!I55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC54" s="17" t="e">
+      <c r="AC54" s="22" t="e">
         <f>IF(炉温记录28!I55="","",炉温记录28!I55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD54" s="17"/>
-      <c r="AE54" s="17"/>
-      <c r="AF54" s="17"/>
+      <c r="AD54" s="22"/>
+      <c r="AE54" s="22"/>
+      <c r="AF54" s="22"/>
       <c r="AG54" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6123,47 +6734,47 @@
       <c r="AM54" s="1"/>
       <c r="AQ54" s="1"/>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:43">
       <c r="A55" s="7">
         <v>52</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="17"/>
-      <c r="AB55" s="17" t="e">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22" t="e">
         <f>IF(炉温记录27!I56="","",炉温记录27!I56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC55" s="17" t="e">
+      <c r="AC55" s="22" t="e">
         <f>IF(炉温记录28!I56="","",炉温记录28!I56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD55" s="17"/>
-      <c r="AE55" s="17"/>
-      <c r="AF55" s="17"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
       <c r="AG55" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6171,47 +6782,47 @@
       <c r="AM55" s="1"/>
       <c r="AQ55" s="1"/>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:43">
       <c r="A56" s="7">
         <v>53</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="17"/>
-      <c r="AB56" s="17" t="e">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22" t="e">
         <f>IF(炉温记录27!I57="","",炉温记录27!I57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC56" s="17" t="e">
+      <c r="AC56" s="22" t="e">
         <f>IF(炉温记录28!I57="","",炉温记录28!I57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD56" s="17"/>
-      <c r="AE56" s="17"/>
-      <c r="AF56" s="17"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
       <c r="AG56" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6219,47 +6830,47 @@
       <c r="AM56" s="1"/>
       <c r="AQ56" s="1"/>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:43">
       <c r="A57" s="7">
         <v>54</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="17"/>
-      <c r="Z57" s="17"/>
-      <c r="AA57" s="17"/>
-      <c r="AB57" s="17" t="e">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22" t="e">
         <f>IF(炉温记录27!I58="","",炉温记录27!I58)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC57" s="17" t="e">
+      <c r="AC57" s="22" t="e">
         <f>IF(炉温记录28!I58="","",炉温记录28!I58)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD57" s="17"/>
-      <c r="AE57" s="17"/>
-      <c r="AF57" s="17"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
       <c r="AG57" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6267,47 +6878,47 @@
       <c r="AM57" s="1"/>
       <c r="AQ57" s="1"/>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:43">
       <c r="A58" s="7">
         <v>55</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="17"/>
-      <c r="Z58" s="17"/>
-      <c r="AA58" s="17"/>
-      <c r="AB58" s="17" t="e">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="22" t="e">
         <f>IF(炉温记录27!I59="","",炉温记录27!I59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC58" s="17" t="e">
+      <c r="AC58" s="22" t="e">
         <f>IF(炉温记录28!I59="","",炉温记录28!I59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD58" s="17"/>
-      <c r="AE58" s="17"/>
-      <c r="AF58" s="17"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="22"/>
+      <c r="AF58" s="22"/>
       <c r="AG58" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6315,47 +6926,47 @@
       <c r="AM58" s="1"/>
       <c r="AQ58" s="1"/>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:43">
       <c r="A59" s="7">
         <v>56</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="17"/>
-      <c r="AA59" s="17"/>
-      <c r="AB59" s="17" t="e">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22" t="e">
         <f>IF(炉温记录27!I60="","",炉温记录27!I60)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC59" s="17" t="e">
+      <c r="AC59" s="22" t="e">
         <f>IF(炉温记录28!I60="","",炉温记录28!I60)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD59" s="17"/>
-      <c r="AE59" s="17"/>
-      <c r="AF59" s="17"/>
+      <c r="AD59" s="22"/>
+      <c r="AE59" s="22"/>
+      <c r="AF59" s="22"/>
       <c r="AG59" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6363,7 +6974,7 @@
       <c r="AM59" s="1"/>
       <c r="AQ59" s="1"/>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:43">
       <c r="A60" s="7" t="s">
         <v>48</v>
       </c>
@@ -6495,7 +7106,7 @@
       <c r="AM60" s="1"/>
       <c r="AQ60" s="1"/>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="61" spans="39:43">
       <c r="AM61" s="1"/>
       <c r="AQ61" s="1"/>
     </row>
@@ -6506,20 +7117,21 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="AB2:AG2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AQ63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
@@ -6535,7 +7147,7 @@
     <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -6574,51 +7186,51 @@
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:43">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="24" t="str">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18" t="str">
         <f>_metadata!B2</f>
         <v>CK67-6#炉温记录从动态管控系统读取报表</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="22" t="s">
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="23"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="21"/>
       <c r="AM2" s="1"/>
       <c r="AQ2" s="1"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:43">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -6721,7 +7333,7 @@
       <c r="AM3" s="1"/>
       <c r="AQ3" s="1"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:43">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -6769,7 +7381,7 @@
       <c r="AM4" s="1"/>
       <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:43">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -6817,7 +7429,7 @@
       <c r="AM5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:43">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -6867,7 +7479,7 @@
       <c r="AM6" s="1"/>
       <c r="AQ6" s="1"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:43">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -6915,7 +7527,7 @@
       <c r="AM7" s="1"/>
       <c r="AQ7" s="1"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:43">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -6963,7 +7575,7 @@
       <c r="AM8" s="1"/>
       <c r="AQ8" s="1"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:43">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -7011,7 +7623,7 @@
       <c r="AM9" s="1"/>
       <c r="AQ9" s="1"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:43">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -7059,7 +7671,7 @@
       <c r="AM10" s="1"/>
       <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:43">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -7107,7 +7719,7 @@
       <c r="AM11" s="1"/>
       <c r="AQ11" s="1"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:43">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -7155,7 +7767,7 @@
       <c r="AM12" s="1"/>
       <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:43">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -7203,7 +7815,7 @@
       <c r="AM13" s="1"/>
       <c r="AQ13" s="1"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:43">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -7251,7 +7863,7 @@
       <c r="AM14" s="1"/>
       <c r="AQ14" s="1"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:43">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -7299,7 +7911,7 @@
       <c r="AM15" s="1"/>
       <c r="AQ15" s="1"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:43">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -7347,7 +7959,7 @@
       <c r="AM16" s="1"/>
       <c r="AQ16" s="1"/>
     </row>
-    <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" s="1" customFormat="1" spans="1:33">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -7393,7 +8005,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" s="1" customFormat="1" spans="1:33">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -7439,7 +8051,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" spans="1:33">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -7485,7 +8097,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" s="1" customFormat="1" spans="1:33">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -7531,7 +8143,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" s="1" customFormat="1" spans="1:33">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -7577,7 +8189,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" s="1" customFormat="1" spans="1:33">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -7623,7 +8235,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" s="1" customFormat="1" spans="1:33">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -7669,7 +8281,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" s="1" customFormat="1" spans="1:33">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -7715,7 +8327,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" s="1" customFormat="1" spans="1:33">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -7761,7 +8373,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" s="1" customFormat="1" spans="1:33">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -7807,7 +8419,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" s="1" customFormat="1" spans="1:33">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -7853,7 +8465,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" s="1" customFormat="1" spans="1:33">
       <c r="A28" s="7">
         <v>25</v>
       </c>
@@ -7899,7 +8511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" s="1" customFormat="1" spans="1:33">
       <c r="A29" s="7">
         <v>26</v>
       </c>
@@ -7945,7 +8557,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" s="1" customFormat="1" spans="1:33">
       <c r="A30" s="7">
         <v>27</v>
       </c>
@@ -7991,7 +8603,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" s="1" customFormat="1" spans="1:33">
       <c r="A31" s="7">
         <v>28</v>
       </c>
@@ -8037,7 +8649,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" s="1" customFormat="1" spans="1:33">
       <c r="A32" s="7">
         <v>29</v>
       </c>
@@ -8083,7 +8695,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" s="1" customFormat="1" spans="1:33">
       <c r="A33" s="7">
         <v>30</v>
       </c>
@@ -8129,7 +8741,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" s="1" customFormat="1" spans="1:33">
       <c r="A34" s="7">
         <v>31</v>
       </c>
@@ -8175,7 +8787,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" s="1" customFormat="1" spans="1:33">
       <c r="A35" s="7">
         <v>32</v>
       </c>
@@ -8221,7 +8833,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" s="1" customFormat="1" spans="1:33">
       <c r="A36" s="7">
         <v>33</v>
       </c>
@@ -8267,7 +8879,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" s="1" customFormat="1" spans="1:33">
       <c r="A37" s="7">
         <v>34</v>
       </c>
@@ -8313,7 +8925,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" s="1" customFormat="1" spans="1:33">
       <c r="A38" s="7">
         <v>35</v>
       </c>
@@ -8359,7 +8971,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" s="1" customFormat="1" spans="1:33">
       <c r="A39" s="7">
         <v>36</v>
       </c>
@@ -8405,7 +9017,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" s="1" customFormat="1" spans="1:33">
       <c r="A40" s="7">
         <v>37</v>
       </c>
@@ -8451,7 +9063,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" s="1" customFormat="1" spans="1:33">
       <c r="A41" s="7">
         <v>38</v>
       </c>
@@ -8497,7 +9109,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" s="1" customFormat="1" spans="1:33">
       <c r="A42" s="7">
         <v>39</v>
       </c>
@@ -8543,7 +9155,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" s="1" customFormat="1" spans="1:33">
       <c r="A43" s="7">
         <v>40</v>
       </c>
@@ -8589,7 +9201,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" s="1" customFormat="1" spans="1:33">
       <c r="A44" s="7">
         <v>41</v>
       </c>
@@ -8635,7 +9247,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" s="1" customFormat="1" spans="1:33">
       <c r="A45" s="7">
         <v>42</v>
       </c>
@@ -8681,7 +9293,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" s="1" customFormat="1" spans="1:33">
       <c r="A46" s="7">
         <v>43</v>
       </c>
@@ -8727,7 +9339,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" s="1" customFormat="1" spans="1:33">
       <c r="A47" s="7">
         <v>44</v>
       </c>
@@ -8773,7 +9385,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" s="1" customFormat="1" spans="1:33">
       <c r="A48" s="7">
         <v>45</v>
       </c>
@@ -8819,7 +9431,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:43">
       <c r="A49" s="7">
         <v>46</v>
       </c>
@@ -8867,7 +9479,7 @@
       <c r="AM49" s="1"/>
       <c r="AQ49" s="1"/>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:43">
       <c r="A50" s="7">
         <v>47</v>
       </c>
@@ -8915,7 +9527,7 @@
       <c r="AM50" s="1"/>
       <c r="AQ50" s="1"/>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:43">
       <c r="A51" s="7">
         <v>48</v>
       </c>
@@ -8963,7 +9575,7 @@
       <c r="AM51" s="1"/>
       <c r="AQ51" s="1"/>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:43">
       <c r="A52" s="7">
         <v>49</v>
       </c>
@@ -9011,7 +9623,7 @@
       <c r="AM52" s="1"/>
       <c r="AQ52" s="1"/>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:43">
       <c r="A53" s="7">
         <v>50</v>
       </c>
@@ -9059,7 +9671,7 @@
       <c r="AM53" s="1"/>
       <c r="AQ53" s="1"/>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:43">
       <c r="A54" s="7">
         <v>51</v>
       </c>
@@ -9107,7 +9719,7 @@
       <c r="AM54" s="1"/>
       <c r="AQ54" s="1"/>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:43">
       <c r="A55" s="7">
         <v>52</v>
       </c>
@@ -9155,7 +9767,7 @@
       <c r="AM55" s="1"/>
       <c r="AQ55" s="1"/>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:43">
       <c r="A56" s="7">
         <v>53</v>
       </c>
@@ -9203,7 +9815,7 @@
       <c r="AM56" s="1"/>
       <c r="AQ56" s="1"/>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:43">
       <c r="A57" s="7">
         <v>54</v>
       </c>
@@ -9251,7 +9863,7 @@
       <c r="AM57" s="1"/>
       <c r="AQ57" s="1"/>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:43">
       <c r="A58" s="7">
         <v>55</v>
       </c>
@@ -9299,7 +9911,7 @@
       <c r="AM58" s="1"/>
       <c r="AQ58" s="1"/>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:43">
       <c r="A59" s="7">
         <v>56</v>
       </c>
@@ -9347,7 +9959,7 @@
       <c r="AM59" s="1"/>
       <c r="AQ59" s="1"/>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:43">
       <c r="A60" s="7" t="s">
         <v>48</v>
       </c>
@@ -9479,15 +10091,15 @@
       <c r="AM60" s="1"/>
       <c r="AQ60" s="1"/>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="61" spans="39:43">
       <c r="AM61" s="1"/>
       <c r="AQ61" s="1"/>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="62" spans="39:43">
       <c r="AM62" s="1"/>
       <c r="AQ62" s="1"/>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="63" spans="39:43">
       <c r="AM63" s="1"/>
       <c r="AQ63" s="1"/>
     </row>
@@ -9498,20 +10110,21 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="AB2:AG2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEI74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
@@ -9521,7 +10134,7 @@
     <col min="16364" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9548,30 +10161,30 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A2" s="3"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -9624,7 +10237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -9673,7 +10286,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A5" s="7" t="s">
         <v>52</v>
       </c>
@@ -9708,7 +10321,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
@@ -9743,7 +10356,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A7" s="7" t="s">
         <v>56</v>
       </c>
@@ -9778,7 +10391,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A8" s="7" t="s">
         <v>58</v>
       </c>
@@ -9813,7 +10426,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
@@ -9848,7 +10461,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
@@ -9883,7 +10496,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="11" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
@@ -9918,7 +10531,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
@@ -9953,7 +10566,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -9988,7 +10601,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A14" s="7" t="s">
         <v>69</v>
       </c>
@@ -10023,7 +10636,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="15" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A15" s="7" t="s">
         <v>70</v>
       </c>
@@ -10058,7 +10671,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="16" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
@@ -10093,7 +10706,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="17" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
@@ -10128,7 +10741,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="18" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A18" s="7" t="s">
         <v>76</v>
       </c>
@@ -10163,7 +10776,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A19" s="7" t="s">
         <v>78</v>
       </c>
@@ -10198,7 +10811,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="20" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A20" s="7" t="s">
         <v>80</v>
       </c>
@@ -10233,7 +10846,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="21" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A21" s="7" t="s">
         <v>82</v>
       </c>
@@ -10268,7 +10881,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="22" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A22" s="7" t="s">
         <v>84</v>
       </c>
@@ -10303,7 +10916,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="23" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A23" s="7" t="s">
         <v>86</v>
       </c>
@@ -10338,7 +10951,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="24" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A24" s="7" t="s">
         <v>88</v>
       </c>
@@ -10375,7 +10988,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="25" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A25" s="7" t="s">
         <v>90</v>
       </c>
@@ -10412,7 +11025,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="26" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A26" s="7" t="s">
         <v>91</v>
       </c>
@@ -10449,7 +11062,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="27" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A27" s="7" t="s">
         <v>92</v>
       </c>
@@ -10486,7 +11099,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="28" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A28" s="7" t="s">
         <v>94</v>
       </c>
@@ -10521,7 +11134,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="29" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A29" s="7" t="s">
         <v>95</v>
       </c>
@@ -10558,7 +11171,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="30" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A30" s="7" t="s">
         <v>97</v>
       </c>
@@ -10595,7 +11208,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="31" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A31" s="7" t="s">
         <v>99</v>
       </c>
@@ -10630,7 +11243,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="32" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -10665,7 +11278,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="33" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A33" s="7" t="s">
         <v>102</v>
       </c>
@@ -10700,7 +11313,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="34" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A34" s="7" t="s">
         <v>103</v>
       </c>
@@ -10737,7 +11350,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="35" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A35" s="7" t="s">
         <v>105</v>
       </c>
@@ -10774,7 +11387,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="36" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
@@ -10811,7 +11424,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="37" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A37" s="7" t="s">
         <v>109</v>
       </c>
@@ -10848,7 +11461,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="38" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A38" s="7" t="s">
         <v>111</v>
       </c>
@@ -10885,7 +11498,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="39" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A39" s="7" t="s">
         <v>113</v>
       </c>
@@ -10922,7 +11535,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="40" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A40" s="7" t="s">
         <v>116</v>
       </c>
@@ -10959,7 +11572,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="41" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A41" s="7" t="s">
         <v>118</v>
       </c>
@@ -10996,7 +11609,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="42" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A42" s="7" t="s">
         <v>120</v>
       </c>
@@ -11033,7 +11646,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="43" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A43" s="7" t="s">
         <v>121</v>
       </c>
@@ -11070,7 +11683,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="44" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A44" s="7" t="s">
         <v>122</v>
       </c>
@@ -11107,7 +11720,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="45" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A45" s="7" t="s">
         <v>125</v>
       </c>
@@ -11144,7 +11757,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="46" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A46" s="7" t="s">
         <v>128</v>
       </c>
@@ -11181,7 +11794,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="47" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A47" s="7" t="s">
         <v>130</v>
       </c>
@@ -11218,7 +11831,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="48" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A48" s="7" t="s">
         <v>132</v>
       </c>
@@ -11255,7 +11868,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="49" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A49" s="7" t="s">
         <v>133</v>
       </c>
@@ -11290,7 +11903,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="50" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A50" s="7" t="s">
         <v>134</v>
       </c>
@@ -11327,7 +11940,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="51" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A51" s="7" t="s">
         <v>136</v>
       </c>
@@ -11364,7 +11977,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="52" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A52" s="7" t="s">
         <v>137</v>
       </c>
@@ -11401,7 +12014,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="53" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A53" s="7" t="s">
         <v>139</v>
       </c>
@@ -11438,7 +12051,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="54" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A54" s="7" t="s">
         <v>142</v>
       </c>
@@ -11473,7 +12086,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="55" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A55" s="7" t="s">
         <v>143</v>
       </c>
@@ -11510,7 +12123,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="56" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A56" s="7" t="s">
         <v>144</v>
       </c>
@@ -11547,7 +12160,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="57" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A57" s="7" t="s">
         <v>146</v>
       </c>
@@ -11584,7 +12197,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="58" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A58" s="7" t="s">
         <v>148</v>
       </c>
@@ -11621,7 +12234,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="59" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A59" s="7" t="s">
         <v>149</v>
       </c>
@@ -11658,7 +12271,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="60" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A60" s="7" t="s">
         <v>150</v>
       </c>
@@ -11693,184 +12306,184 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="61" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A61" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="8" t="e">
-        <f t="shared" ref="B61:H61" ca="1" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
+        <f ca="1" t="shared" ref="B61:H61" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="e">
-        <f t="shared" ref="J61:P61" ca="1" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
+        <f ca="1" t="shared" ref="J61:P61" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="8" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L61" s="8" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" s="8" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N61" s="8" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P61" s="8" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="62" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A62" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="8" t="e">
-        <f t="shared" ref="B62:H62" ca="1" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
+        <f ca="1" t="shared" ref="B62:H62" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="e">
-        <f t="shared" ref="J62:P62" ca="1" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
+        <f ca="1" t="shared" ref="J62:P62" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K62" s="8" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L62" s="8" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="8" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N62" s="8" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="8">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="P62" s="8" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="63" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A63" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="9" t="e">
-        <f t="shared" ref="B63:G63" ca="1" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
+        <f ca="1" t="shared" ref="B63:G63" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C63" s="9" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="9" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="9" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F63" s="9" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G63" s="9" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="e">
-        <f t="shared" ref="J63:O63" ca="1" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
+        <f ca="1" t="shared" ref="J63:O63" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K63" s="9" t="e">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L63" s="9" t="e">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M63" s="9" t="e">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N63" s="9" t="e">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O63" s="9" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1" t="shared" si="9"/>
         <v>↑0↓2</v>
       </c>
       <c r="P63" s="9" t="s">
@@ -11878,7 +12491,7 @@
       </c>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="64" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A64" s="7" t="s">
         <v>31</v>
       </c>
@@ -11941,7 +12554,7 @@
       </c>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="65" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A65" s="7" t="s">
         <v>32</v>
       </c>
@@ -12004,7 +12617,7 @@
       </c>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="66" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A66" s="7" t="s">
         <v>12</v>
       </c>
@@ -12066,7 +12679,7 @@
       </c>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="67" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A67" s="7" t="s">
         <v>33</v>
       </c>
@@ -12115,7 +12728,7 @@
       </c>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="68" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A68" s="7" t="s">
         <v>34</v>
       </c>
@@ -12178,10 +12791,10 @@
       </c>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="69" s="1" customFormat="1" ht="13.5" spans="9:9">
       <c r="I69" s="12"/>
     </row>
-    <row r="70" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="70" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
         <v>35</v>
@@ -12205,7 +12818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="71" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C71" s="7" t="s">
         <v>37</v>
       </c>
@@ -12218,7 +12831,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F71" s="11" t="e">
-        <f t="shared" ref="F71:F73" ca="1" si="18">AVERAGE(D71:E71)</f>
+        <f ca="1" t="shared" ref="F71:F73" si="18">AVERAGE(D71:E71)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G71" s="11"/>
@@ -12239,7 +12852,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="72" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C72" s="7" t="s">
         <v>39</v>
       </c>
@@ -12252,7 +12865,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F72" s="11" t="e">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1" t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G72" s="7"/>
@@ -12273,7 +12886,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="73" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C73" s="7" t="s">
         <v>41</v>
       </c>
@@ -12286,7 +12899,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F73" s="11" t="e">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1" t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G73" s="7"/>
@@ -12307,7 +12920,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="74" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C74" s="8" t="s">
         <v>43</v>
       </c>
@@ -12334,28 +12947,31 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>152</v>
       </c>
       <c r="B1">
-        <v>43432.475215787003</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>43432.475215787</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -12363,7 +12979,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -12371,7 +12987,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>157</v>
       </c>
@@ -12379,7 +12995,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -12387,7 +13003,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -12395,7 +13011,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -12403,7 +13019,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -12411,7 +13027,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -12419,7 +13035,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -12427,7 +13043,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>171</v>
       </c>
@@ -12436,20 +13052,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEI74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
@@ -12459,7 +13076,7 @@
     <col min="16364" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12486,30 +13103,30 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A2" s="3"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -12562,7 +13179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -12611,7 +13228,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A5" s="7" t="s">
         <v>52</v>
       </c>
@@ -12644,7 +13261,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
@@ -12677,7 +13294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A7" s="7" t="s">
         <v>56</v>
       </c>
@@ -12710,7 +13327,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A8" s="7" t="s">
         <v>58</v>
       </c>
@@ -12743,7 +13360,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
@@ -12776,7 +13393,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
@@ -12809,7 +13426,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="11" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
@@ -12842,7 +13459,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
@@ -12875,7 +13492,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -12908,7 +13525,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A14" s="7" t="s">
         <v>69</v>
       </c>
@@ -12941,7 +13558,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="15" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A15" s="7" t="s">
         <v>70</v>
       </c>
@@ -12974,7 +13591,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="16" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
@@ -13007,7 +13624,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="17" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
@@ -13040,7 +13657,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="18" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A18" s="7" t="s">
         <v>76</v>
       </c>
@@ -13073,7 +13690,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A19" s="7" t="s">
         <v>78</v>
       </c>
@@ -13106,7 +13723,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="20" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A20" s="7" t="s">
         <v>80</v>
       </c>
@@ -13139,7 +13756,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="21" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A21" s="7" t="s">
         <v>82</v>
       </c>
@@ -13172,7 +13789,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="22" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A22" s="7" t="s">
         <v>84</v>
       </c>
@@ -13205,7 +13822,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="23" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A23" s="7" t="s">
         <v>86</v>
       </c>
@@ -13238,7 +13855,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="24" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A24" s="7" t="s">
         <v>88</v>
       </c>
@@ -13271,7 +13888,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="25" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A25" s="7" t="s">
         <v>90</v>
       </c>
@@ -13304,7 +13921,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="26" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A26" s="7" t="s">
         <v>91</v>
       </c>
@@ -13337,7 +13954,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="27" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A27" s="7" t="s">
         <v>92</v>
       </c>
@@ -13370,7 +13987,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="28" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A28" s="7" t="s">
         <v>94</v>
       </c>
@@ -13403,7 +14020,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="29" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A29" s="7" t="s">
         <v>95</v>
       </c>
@@ -13436,7 +14053,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="30" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A30" s="7" t="s">
         <v>97</v>
       </c>
@@ -13469,7 +14086,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="31" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A31" s="7" t="s">
         <v>99</v>
       </c>
@@ -13502,7 +14119,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="32" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -13535,7 +14152,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="33" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A33" s="7" t="s">
         <v>102</v>
       </c>
@@ -13568,7 +14185,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="34" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A34" s="7" t="s">
         <v>103</v>
       </c>
@@ -13601,7 +14218,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="35" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A35" s="7" t="s">
         <v>105</v>
       </c>
@@ -13634,7 +14251,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="36" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
@@ -13667,7 +14284,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="37" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A37" s="7" t="s">
         <v>109</v>
       </c>
@@ -13700,7 +14317,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="38" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A38" s="7" t="s">
         <v>111</v>
       </c>
@@ -13733,7 +14350,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="39" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A39" s="7" t="s">
         <v>113</v>
       </c>
@@ -13766,7 +14383,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="40" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A40" s="7" t="s">
         <v>116</v>
       </c>
@@ -13799,7 +14416,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="41" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A41" s="7" t="s">
         <v>118</v>
       </c>
@@ -13832,7 +14449,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="42" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A42" s="7" t="s">
         <v>120</v>
       </c>
@@ -13865,7 +14482,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="43" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A43" s="7" t="s">
         <v>121</v>
       </c>
@@ -13898,7 +14515,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="44" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A44" s="7" t="s">
         <v>122</v>
       </c>
@@ -13931,7 +14548,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="45" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A45" s="7" t="s">
         <v>125</v>
       </c>
@@ -13964,7 +14581,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="46" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A46" s="7" t="s">
         <v>128</v>
       </c>
@@ -13997,7 +14614,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="47" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A47" s="7" t="s">
         <v>130</v>
       </c>
@@ -14030,7 +14647,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="48" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A48" s="7" t="s">
         <v>132</v>
       </c>
@@ -14063,7 +14680,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="49" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A49" s="7" t="s">
         <v>133</v>
       </c>
@@ -14096,7 +14713,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="50" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A50" s="7" t="s">
         <v>134</v>
       </c>
@@ -14129,7 +14746,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="51" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A51" s="7" t="s">
         <v>136</v>
       </c>
@@ -14162,7 +14779,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="52" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A52" s="7" t="s">
         <v>137</v>
       </c>
@@ -14195,7 +14812,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="53" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A53" s="7" t="s">
         <v>139</v>
       </c>
@@ -14228,7 +14845,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="54" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A54" s="7" t="s">
         <v>142</v>
       </c>
@@ -14261,7 +14878,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="55" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A55" s="7" t="s">
         <v>143</v>
       </c>
@@ -14294,7 +14911,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="56" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A56" s="7" t="s">
         <v>144</v>
       </c>
@@ -14327,7 +14944,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="57" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A57" s="7" t="s">
         <v>146</v>
       </c>
@@ -14360,7 +14977,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="58" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A58" s="7" t="s">
         <v>148</v>
       </c>
@@ -14393,7 +15010,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="59" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A59" s="7" t="s">
         <v>149</v>
       </c>
@@ -14426,7 +15043,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="60" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A60" s="7" t="s">
         <v>150</v>
       </c>
@@ -14459,184 +15076,184 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="61" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A61" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="8" t="e">
-        <f t="shared" ref="B61:H61" ca="1" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
+        <f ca="1" t="shared" ref="B61:H61" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="8" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1" t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="e">
-        <f t="shared" ref="J61:P61" ca="1" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
+        <f ca="1" t="shared" ref="J61:P61" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="8" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L61" s="8" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" s="8" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N61" s="8" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P61" s="8" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="62" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A62" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="8" t="e">
-        <f t="shared" ref="B62:H62" ca="1" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
+        <f ca="1" t="shared" ref="B62:H62" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="8" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1" t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="e">
-        <f t="shared" ref="J62:P62" ca="1" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
+        <f ca="1" t="shared" ref="J62:P62" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K62" s="8" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L62" s="8" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="8" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N62" s="8" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="8">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="P62" s="8" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1" t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="63" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A63" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="9" t="e">
-        <f t="shared" ref="B63:G63" ca="1" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
+        <f ca="1" t="shared" ref="B63:G63" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C63" s="9" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="9" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="9" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F63" s="9" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G63" s="9" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="e">
-        <f t="shared" ref="J63:O63" ca="1" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
+        <f ca="1" t="shared" ref="J63:O63" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K63" s="9" t="e">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L63" s="9" t="e">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M63" s="9" t="e">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N63" s="9" t="e">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O63" s="9" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1" t="shared" si="9"/>
         <v>↑0↓2</v>
       </c>
       <c r="P63" s="9" t="s">
@@ -14644,7 +15261,7 @@
       </c>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="64" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A64" s="7" t="s">
         <v>31</v>
       </c>
@@ -14707,7 +15324,7 @@
       </c>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="65" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A65" s="7" t="s">
         <v>32</v>
       </c>
@@ -14770,7 +15387,7 @@
       </c>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="66" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A66" s="7" t="s">
         <v>12</v>
       </c>
@@ -14832,7 +15449,7 @@
       </c>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="67" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A67" s="7" t="s">
         <v>33</v>
       </c>
@@ -14881,7 +15498,7 @@
       </c>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="68" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A68" s="7" t="s">
         <v>34</v>
       </c>
@@ -14944,10 +15561,10 @@
       </c>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="69" s="1" customFormat="1" ht="13.5" spans="9:9">
       <c r="I69" s="12"/>
     </row>
-    <row r="70" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="70" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
         <v>35</v>
@@ -14971,7 +15588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="71" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C71" s="7" t="s">
         <v>37</v>
       </c>
@@ -14984,7 +15601,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F71" s="11" t="e">
-        <f t="shared" ref="F71:F73" ca="1" si="18">AVERAGE(D71:E71)</f>
+        <f ca="1" t="shared" ref="F71:F73" si="18">AVERAGE(D71:E71)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G71" s="11"/>
@@ -15005,7 +15622,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="72" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C72" s="7" t="s">
         <v>39</v>
       </c>
@@ -15018,7 +15635,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F72" s="11" t="e">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1" t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G72" s="7"/>
@@ -15039,7 +15656,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="73" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C73" s="7" t="s">
         <v>41</v>
       </c>
@@ -15052,7 +15669,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F73" s="11" t="e">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1" t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G73" s="7"/>
@@ -15073,7 +15690,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="74" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C74" s="8" t="s">
         <v>43</v>
       </c>
@@ -15100,7 +15717,7 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-6#炉温记录报表设计.xlsx
+++ b/excel/finished/焦化/CK67-6#炉温记录报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_model" sheetId="1" state="hidden" r:id="rId1"/>
@@ -261,12 +261,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -290,14 +290,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -305,8 +297,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,30 +321,27 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +355,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -365,40 +370,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,8 +385,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,16 +417,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -454,13 +454,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,19 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,13 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,13 +544,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,13 +580,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,55 +604,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,13 +628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,6 +700,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -711,6 +726,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,54 +775,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -797,16 +788,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,16 +815,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,118 +833,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -962,10 +962,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,16 +977,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3888,7 +3888,7 @@
   <sheetPr/>
   <dimension ref="A1:AQ61"/>
   <sheetViews>
-    <sheetView topLeftCell="I18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I18" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:AF59"/>
     </sheetView>
   </sheetViews>
@@ -6505,7 +6505,7 @@
   <sheetPr/>
   <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
+    <sheetView topLeftCell="I19" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:AF59"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/焦化/CK67-6#炉温记录报表设计.xlsx
+++ b/excel/finished/焦化/CK67-6#炉温记录报表设计.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="_model" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="_model" sheetId="1" r:id="rId1"/>
     <sheet name="6#机侧炉温管控(月)从动态管控系统读取或计算" sheetId="2" r:id="rId2"/>
     <sheet name="6#焦侧炉温管控(月)从动态管控系统读取或计算" sheetId="3" r:id="rId3"/>
-    <sheet name="_metadata" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>日期</t>
   </si>
@@ -28,10 +28,10 @@
     <t>CO6</t>
   </si>
   <si>
-    <t>机侧back5=1</t>
+    <t>机侧</t>
   </si>
   <si>
-    <t>焦侧back5=2</t>
+    <t>焦侧</t>
   </si>
   <si>
     <t>燃烧室号</t>
@@ -59,45 +59,6 @@
   </si>
   <si>
     <t>差值</t>
-  </si>
-  <si>
-    <t>rlno</t>
-  </si>
-  <si>
-    <t>attr1</t>
-  </si>
-  <si>
-    <t>attr2</t>
-  </si>
-  <si>
-    <t>attr3</t>
-  </si>
-  <si>
-    <t>attr4</t>
-  </si>
-  <si>
-    <t>attr5</t>
-  </si>
-  <si>
-    <t>attr6</t>
-  </si>
-  <si>
-    <t>attr7</t>
-  </si>
-  <si>
-    <t>attr8</t>
-  </si>
-  <si>
-    <t>attr9</t>
-  </si>
-  <si>
-    <t>attr10</t>
-  </si>
-  <si>
-    <t>attr11</t>
-  </si>
-  <si>
-    <t>attr12</t>
   </si>
   <si>
     <t>上超标&gt;20</t>
@@ -168,103 +129,16 @@
   <si>
     <t>6#焦侧</t>
   </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>DateTime1</t>
-  </si>
-  <si>
-    <t>2018年12月13日</t>
-  </si>
-  <si>
-    <t>DateTime2</t>
-  </si>
-  <si>
-    <t>12月13日</t>
-  </si>
-  <si>
-    <t>DateTime3</t>
-  </si>
-  <si>
-    <t>2018/12/13</t>
-  </si>
-  <si>
-    <t>DateTime4</t>
-  </si>
-  <si>
-    <t>12/13</t>
-  </si>
-  <si>
-    <t>TemplateName</t>
-  </si>
-  <si>
-    <t>CK67-6#炉温记录报表</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>日报表</t>
-  </si>
-  <si>
-    <t>TemplatePath</t>
-  </si>
-  <si>
-    <t>D:\template\焦化\CK67-6#炉温记录报表设计.xlsx</t>
-  </si>
-  <si>
-    <t>AutoBuild</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>cn_zh</t>
-  </si>
-  <si>
-    <t>BlowingInDate</t>
-  </si>
-  <si>
-    <t>2018-12-13</t>
-  </si>
-  <si>
-    <t>Build_Type</t>
-  </si>
-  <si>
-    <t>automatic</t>
-  </si>
-  <si>
-    <t>Build_StartTime</t>
-  </si>
-  <si>
-    <t>2018-12-13 14:48:58</t>
-  </si>
-  <si>
-    <t>Build_EndTime</t>
-  </si>
-  <si>
-    <t>2018-12-13 14:49:00</t>
-  </si>
-  <si>
-    <t>ExcelFile</t>
-  </si>
-  <si>
-    <t>D:\excel\cn_zh\焦化\日报表\CK67-6#炉温记录报表_2018-12-13_14.xlsx</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m"/>
   </numFmts>
@@ -290,6 +164,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -297,9 +179,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,12 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -328,20 +206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,6 +216,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,25 +245,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,6 +256,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,23 +298,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,7 +334,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +358,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +382,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +442,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,25 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,103 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,21 +574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -726,15 +585,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,8 +607,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,25 +671,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,19 +689,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -836,115 +710,115 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1336,10 +1210,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1358,7 +1232,7 @@
       </c>
       <c r="B1" s="16" t="str">
         <f>IF(_metadata!B4="","",_metadata!B4)</f>
-        <v>2018/12/13</v>
+        <v/>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -1403,7 +1277,7 @@
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="3" s="1" customFormat="1" spans="1:17">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -1456,52 +1330,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
-      <c r="A4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="4" s="1" customFormat="1" spans="1:17">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="str">
+        <f t="shared" ref="H4:H35" si="0">IF(B4="","",AVERAGE(B4:G4))</f>
+        <v/>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f t="shared" ref="I4:I35" si="1">IF(H4="","",H4-H$64)</f>
+        <v/>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8" t="str">
+        <f t="shared" ref="P4:P35" si="2">IF(J4="","",AVERAGE(J4:O4))</f>
+        <v/>
+      </c>
+      <c r="Q4" s="8" t="str">
+        <f t="shared" ref="Q4:Q35" si="3">IF(P4="","",P4-P$64)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:17">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1509,13 +1369,13 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="8" t="e">
-        <f t="shared" ref="H5:H60" si="0">AVERAGE(B5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="8" t="e">
-        <f t="shared" ref="I5:I60" si="1">H5-H$65</f>
-        <v>#DIV/0!</v>
+      <c r="H5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1523,13 +1383,13 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="8" t="e">
-        <f t="shared" ref="P5:P60" si="2">AVERAGE(J5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="8" t="e">
-        <f t="shared" ref="Q5:Q60" si="3">P5-P$65</f>
-        <v>#DIV/0!</v>
+      <c r="P5" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q5" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1540,13 +1400,13 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="8" t="e">
+      <c r="H6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1554,13 +1414,13 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="8" t="e">
+      <c r="P6" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q6" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1571,13 +1431,13 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="8" t="e">
+      <c r="H7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1585,13 +1445,13 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="8" t="e">
+      <c r="P7" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q7" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1602,13 +1462,13 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="8" t="e">
+      <c r="H8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1616,13 +1476,13 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="8" t="e">
+      <c r="P8" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q8" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1633,13 +1493,13 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="8" t="e">
+      <c r="H9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1647,13 +1507,13 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="8" t="e">
+      <c r="P9" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q9" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1664,13 +1524,13 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="8" t="e">
+      <c r="H10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1678,13 +1538,13 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="8" t="e">
+      <c r="P10" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q10" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1695,13 +1555,13 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="8" t="e">
+      <c r="H11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1709,13 +1569,13 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="8" t="e">
+      <c r="P11" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q11" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1726,13 +1586,13 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="8" t="e">
+      <c r="H12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1740,13 +1600,13 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="8" t="e">
+      <c r="P12" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q12" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1757,13 +1617,13 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="8" t="e">
+      <c r="H13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1771,13 +1631,13 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="8" t="e">
+      <c r="P13" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q13" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1788,13 +1648,13 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="8" t="e">
+      <c r="H14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1802,13 +1662,13 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="8" t="e">
+      <c r="P14" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q14" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q14" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1819,13 +1679,13 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="8" t="e">
+      <c r="H15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1833,13 +1693,13 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="8" t="e">
+      <c r="P15" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q15" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q15" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1850,13 +1710,13 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="8" t="e">
+      <c r="H16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1864,13 +1724,13 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="8" t="e">
+      <c r="P16" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q16" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1881,13 +1741,13 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="8" t="e">
+      <c r="H17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1895,13 +1755,13 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="8" t="e">
+      <c r="P17" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q17" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q17" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1912,13 +1772,13 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="8" t="e">
+      <c r="H18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1926,13 +1786,13 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="8" t="e">
+      <c r="P18" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q18" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1943,13 +1803,13 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="8" t="e">
+      <c r="H19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -1957,13 +1817,13 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="8" t="e">
+      <c r="P19" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q19" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1974,13 +1834,13 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="8" t="e">
+      <c r="H20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -1988,13 +1848,13 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="8" t="e">
+      <c r="P20" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q20" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2005,13 +1865,13 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="8" t="e">
+      <c r="H21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I21" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -2019,13 +1879,13 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="8" t="e">
+      <c r="P21" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q21" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2036,13 +1896,13 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="8" t="e">
+      <c r="H22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I22" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -2050,13 +1910,13 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="8" t="e">
+      <c r="P22" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q22" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q22" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2067,13 +1927,13 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="8" t="e">
+      <c r="H23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I23" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -2081,13 +1941,13 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="8" t="e">
+      <c r="P23" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q23" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q23" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2098,13 +1958,13 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="8" t="e">
+      <c r="H24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -2112,13 +1972,13 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="8" t="e">
+      <c r="P24" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q24" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2129,13 +1989,13 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="8" t="e">
+      <c r="H25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I25" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -2143,13 +2003,13 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="8" t="e">
+      <c r="P25" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q25" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2160,13 +2020,13 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="8" t="e">
+      <c r="H26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I26" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -2174,13 +2034,13 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="8" t="e">
+      <c r="P26" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q26" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2191,13 +2051,13 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="8" t="e">
+      <c r="H27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I27" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -2205,13 +2065,13 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="8" t="e">
+      <c r="P27" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q27" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2222,13 +2082,13 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="8" t="e">
+      <c r="H28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I28" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2236,13 +2096,13 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="8" t="e">
+      <c r="P28" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q28" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2253,13 +2113,13 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="8" t="e">
+      <c r="H29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I29" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2267,13 +2127,13 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
-      <c r="P29" s="8" t="e">
+      <c r="P29" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q29" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2284,13 +2144,13 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="8" t="e">
+      <c r="H30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I30" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -2298,13 +2158,13 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
-      <c r="P30" s="8" t="e">
+      <c r="P30" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q30" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q30" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2315,13 +2175,13 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="8" t="e">
+      <c r="H31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I31" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -2329,13 +2189,13 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="8" t="e">
+      <c r="P31" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q31" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2346,13 +2206,13 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="8" t="e">
+      <c r="H32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I32" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2360,13 +2220,13 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="8" t="e">
+      <c r="P32" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q32" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q32" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2377,13 +2237,13 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="8" t="e">
+      <c r="H33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I33" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -2391,13 +2251,13 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="8" t="e">
+      <c r="P33" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q33" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q33" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2408,13 +2268,13 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="8" t="e">
+      <c r="H34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I34" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -2422,13 +2282,13 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="8" t="e">
+      <c r="P34" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q34" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q34" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2439,13 +2299,13 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="8" t="e">
+      <c r="H35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I35" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2453,13 +2313,13 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="8" t="e">
+      <c r="P35" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q35" s="8" t="e">
+        <v/>
+      </c>
+      <c r="Q35" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2470,13 +2330,13 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H36" s="8" t="str">
+        <f t="shared" ref="H36:H59" si="4">IF(B36="","",AVERAGE(B36:G36))</f>
+        <v/>
+      </c>
+      <c r="I36" s="8" t="str">
+        <f t="shared" ref="I36:I59" si="5">IF(H36="","",H36-H$64)</f>
+        <v/>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2484,13 +2344,13 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q36" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P36" s="8" t="str">
+        <f t="shared" ref="P36:P59" si="6">IF(J36="","",AVERAGE(J36:O36))</f>
+        <v/>
+      </c>
+      <c r="Q36" s="8" t="str">
+        <f t="shared" ref="Q36:Q59" si="7">IF(P36="","",P36-P$64)</f>
+        <v/>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2501,13 +2361,13 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H37" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -2515,13 +2375,13 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
-      <c r="P37" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q37" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P37" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q37" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2532,13 +2392,13 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H38" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2546,13 +2406,13 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
-      <c r="P38" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q38" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P38" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q38" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2563,13 +2423,13 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H39" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I39" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -2577,13 +2437,13 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
-      <c r="P39" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q39" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P39" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q39" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2594,13 +2454,13 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H40" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2608,13 +2468,13 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
-      <c r="P40" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q40" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P40" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q40" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2625,13 +2485,13 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H41" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2639,13 +2499,13 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q41" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P41" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q41" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2656,13 +2516,13 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H42" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2670,13 +2530,13 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q42" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P42" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q42" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2687,13 +2547,13 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H43" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -2701,13 +2561,13 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
-      <c r="P43" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q43" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P43" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q43" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2718,13 +2578,13 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I44" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H44" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -2732,13 +2592,13 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q44" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P44" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q44" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2749,13 +2609,13 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H45" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2763,13 +2623,13 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q45" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P45" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q45" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2780,13 +2640,13 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H46" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2794,13 +2654,13 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q46" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P46" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q46" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2811,13 +2671,13 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I47" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H47" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -2825,13 +2685,13 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q47" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P47" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q47" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2842,13 +2702,13 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I48" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H48" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -2856,13 +2716,13 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q48" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P48" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q48" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2873,13 +2733,13 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H49" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -2887,13 +2747,13 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q49" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P49" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q49" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2904,13 +2764,13 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H50" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -2918,13 +2778,13 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q50" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P50" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q50" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2935,13 +2795,13 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H51" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -2949,13 +2809,13 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q51" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P51" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q51" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2966,13 +2826,13 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H52" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -2980,13 +2840,13 @@
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q52" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P52" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q52" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2997,13 +2857,13 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H53" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -3011,13 +2871,13 @@
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q53" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P53" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q53" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3028,13 +2888,13 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I54" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H54" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I54" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -3042,13 +2902,13 @@
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q54" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P54" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q54" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3059,13 +2919,13 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I55" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H55" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I55" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -3073,13 +2933,13 @@
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q55" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P55" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q55" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3090,13 +2950,13 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H56" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I56" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -3104,13 +2964,13 @@
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q56" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P56" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q56" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3121,13 +2981,13 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I57" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H57" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I57" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -3135,13 +2995,13 @@
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q57" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P57" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q57" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3152,13 +3012,13 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I58" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H58" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I58" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -3166,13 +3026,13 @@
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q58" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P58" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q58" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3183,13 +3043,13 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I59" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H59" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I59" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -3197,680 +3057,650 @@
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q59" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P59" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q59" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="13.5" spans="1:17">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="A60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="8" t="e">
+        <f ca="1" t="shared" ref="B60:H60" si="8">COUNTIF(B5:B58,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B65),COLUMN(B65)))+20))+IF(B4&gt;(B65+30),1,0)+IF(B59&gt;(B65+30),1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C60" s="8" t="e">
+        <f ca="1" t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D60" s="8" t="e">
+        <f ca="1" t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="8" t="e">
+        <f ca="1" t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="8" t="e">
+        <f ca="1" t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="8" t="e">
+        <f ca="1" t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="H60" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
+        <f ca="1" t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8" t="e">
+        <f ca="1" t="shared" ref="J60:P60" si="9">COUNTIF(J5:J58,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J65),COLUMN(J65)))+20))+IF(J4&gt;(J65+30),1,0)+IF(J59&gt;(J65+30),1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K60" s="8" t="e">
+        <f ca="1" t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L60" s="8" t="e">
+        <f ca="1" t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M60" s="8" t="e">
+        <f ca="1" t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N60" s="8" t="e">
+        <f ca="1" t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O60" s="8" t="e">
+        <f ca="1" t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="P60" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q60" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f ca="1" t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q60" s="8"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A61" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B61" s="8" t="e">
-        <f ca="1" t="shared" ref="B61:H61" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" ref="B61:H61" si="10">COUNTIF(B4:B59,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B65),COLUMN(B65)))-20))+IF(B4&lt;(B65-30),1,0)+IF(B59&lt;(B65-30),1,0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="D61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="E61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="F61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="H61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="e">
-        <f ca="1" t="shared" ref="J61:P61" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" ref="J61:P61" si="11">COUNTIF(J4:J59,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J65),COLUMN(J65)))-20))+IF(J4&lt;(J65-30),1,0)+IF(J59&lt;(J65-30),1,0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>#VALUE!</v>
       </c>
       <c r="L61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>#VALUE!</v>
       </c>
       <c r="M61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>#VALUE!</v>
       </c>
       <c r="N61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O61" s="8">
-        <f ca="1" t="shared" si="5"/>
-        <v>0</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O61" s="8" t="e">
+        <f ca="1" t="shared" si="11"/>
+        <v>#VALUE!</v>
       </c>
       <c r="P61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>#VALUE!</v>
       </c>
       <c r="Q61" s="8"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A62" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="8" t="e">
-        <f ca="1" t="shared" ref="B62:H62" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8" t="e">
-        <f ca="1" t="shared" ref="J62:P62" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O62" s="8">
-        <f ca="1" t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="P62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q62" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="B62" s="19" t="e">
+        <f ca="1" t="shared" ref="B62:G62" si="12">CONCATENATE("↑",B60,"↓",B61)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C62" s="19" t="e">
+        <f ca="1" t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D62" s="19" t="e">
+        <f ca="1" t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E62" s="19" t="e">
+        <f ca="1" t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F62" s="19" t="e">
+        <f ca="1" t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G62" s="19" t="e">
+        <f ca="1" t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19" t="e">
+        <f ca="1" t="shared" ref="J62:O62" si="13">CONCATENATE("↑",J60,"↓",J61)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K62" s="19" t="e">
+        <f ca="1" t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L62" s="19" t="e">
+        <f ca="1" t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M62" s="19" t="e">
+        <f ca="1" t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N62" s="19" t="e">
+        <f ca="1" t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O62" s="19" t="e">
+        <f ca="1" t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P62" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q62" s="7"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A63" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63" s="19" t="e">
-        <f ca="1" t="shared" ref="B63:G63" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C63" s="19" t="e">
-        <f ca="1" t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D63" s="19" t="e">
-        <f ca="1" t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E63" s="19" t="e">
-        <f ca="1" t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F63" s="19" t="e">
-        <f ca="1" t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G63" s="19" t="e">
-        <f ca="1" t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19" t="e">
-        <f ca="1" t="shared" ref="J63:O63" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K63" s="19" t="e">
-        <f ca="1" t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L63" s="19" t="e">
-        <f ca="1" t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M63" s="19" t="e">
-        <f ca="1" t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N63" s="19" t="e">
-        <f ca="1" t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O63" s="19" t="str">
-        <f ca="1" t="shared" si="9"/>
-        <v>↑0↓2</v>
-      </c>
-      <c r="P63" s="19" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="B63" s="8">
+        <f t="shared" ref="B63:H63" si="14">MAX(B4:B59)</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8">
+        <f t="shared" ref="J63:P63" si="15">MAX(J4:J59)</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="Q63" s="7"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A64" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B64" s="8">
-        <f t="shared" ref="B64:H64" si="10">MAX(B5:B60)</f>
+        <f t="shared" ref="B64:H64" si="16">MIN(B4:B59)</f>
         <v>0</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D64" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E64" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F64" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G64" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H64" s="8" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="H64" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8">
-        <f t="shared" ref="J64:P64" si="11">MAX(J5:J60)</f>
+        <f t="shared" ref="J64:P64" si="17">MIN(J4:J59)</f>
         <v>0</v>
       </c>
       <c r="K64" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L64" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N64" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O64" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P64" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="P64" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="Q64" s="7"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A65" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" s="8">
-        <f t="shared" ref="B65:H65" si="12">MIN(B5:B60)</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D65" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>12</v>
+      </c>
+      <c r="B65" s="8" t="str">
+        <f t="shared" ref="B65:P65" si="18">IF(B4="","",AVERAGE(B4:B59))</f>
+        <v/>
+      </c>
+      <c r="C65" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="D65" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E65" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F65" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G65" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H65" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="I65" s="8"/>
-      <c r="J65" s="8">
-        <f t="shared" ref="J65:P65" si="13">MIN(J5:J60)</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="J65" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="K65" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L65" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M65" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="N65" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="O65" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="P65" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="Q65" s="7"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="8" t="e">
-        <f t="shared" ref="B66:H66" si="14">AVERAGE(B5:B60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C66" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D66" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E66" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F66" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G66" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H66" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>20</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1250</v>
+      </c>
+      <c r="C66" s="7">
+        <v>1250</v>
+      </c>
+      <c r="D66" s="7">
+        <v>1250</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1250</v>
+      </c>
+      <c r="F66" s="7">
+        <v>1250</v>
+      </c>
+      <c r="G66" s="7">
+        <v>1250</v>
+      </c>
+      <c r="H66" s="7">
+        <v>1250</v>
       </c>
       <c r="I66" s="8"/>
-      <c r="J66" s="8" t="e">
-        <f t="shared" ref="J66:N66" si="15">AVERAGE(J5:J60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K66" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L66" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M66" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N66" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O66" s="8">
-        <v>1250</v>
-      </c>
-      <c r="P66" s="8" t="e">
-        <f>AVERAGE(P5:P60)</f>
-        <v>#DIV/0!</v>
+      <c r="J66" s="7">
+        <v>1290</v>
+      </c>
+      <c r="K66" s="7">
+        <v>1290</v>
+      </c>
+      <c r="L66" s="7">
+        <v>1290</v>
+      </c>
+      <c r="M66" s="7">
+        <v>1290</v>
+      </c>
+      <c r="N66" s="7">
+        <v>1290</v>
+      </c>
+      <c r="O66" s="7">
+        <v>1290</v>
+      </c>
+      <c r="P66" s="7">
+        <v>1290</v>
       </c>
       <c r="Q66" s="7"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A67" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B67" s="7">
-        <v>1250</v>
-      </c>
-      <c r="C67" s="7">
-        <v>1250</v>
-      </c>
-      <c r="D67" s="7">
-        <v>1250</v>
-      </c>
-      <c r="E67" s="7">
-        <v>1250</v>
-      </c>
-      <c r="F67" s="7">
-        <v>1250</v>
-      </c>
-      <c r="G67" s="7">
-        <v>1250</v>
-      </c>
-      <c r="H67" s="7">
-        <v>1250</v>
-      </c>
-      <c r="I67" s="8"/>
-      <c r="J67" s="7">
-        <v>1290</v>
-      </c>
-      <c r="K67" s="7">
-        <v>1290</v>
-      </c>
-      <c r="L67" s="7">
-        <v>1290</v>
-      </c>
-      <c r="M67" s="7">
-        <v>1290</v>
-      </c>
-      <c r="N67" s="7">
-        <v>1290</v>
-      </c>
-      <c r="O67" s="7">
-        <v>1290</v>
-      </c>
-      <c r="P67" s="7">
-        <v>1290</v>
+        <v>21</v>
+      </c>
+      <c r="B67" s="7" t="e">
+        <f t="shared" ref="B67:H67" si="19">IF(ABS(B65-B66)&gt;7,1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C67" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D67" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E67" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F67" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G67" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H67" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7" t="e">
+        <f t="shared" ref="J67:P67" si="20">IF(ABS(J65-J66)&gt;7,1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K67" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L67" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M67" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N67" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O67" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P67" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
       </c>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="13.5" spans="1:17">
-      <c r="A68" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" s="7" t="e">
-        <f t="shared" ref="B68:H68" si="16">IF(ABS(B66-B67)&gt;7,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C68" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D68" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E68" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F68" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G68" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H68" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7" t="e">
-        <f t="shared" ref="J68:P68" si="17">IF(ABS(J66-J67)&gt;7,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K68" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L68" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M68" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N68" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O68" s="7">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="P68" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q68" s="7"/>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="13.5" spans="9:9">
-      <c r="I69" s="22"/>
+    <row r="68" s="1" customFormat="1" ht="13.5" spans="9:9">
+      <c r="I68" s="22"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="13.5" spans="3:12">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="70" s="1" customFormat="1" ht="13.5" spans="3:12">
-      <c r="C70" s="7"/>
-      <c r="D70" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="7"/>
+      <c r="C70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="21" t="e">
+        <f ca="1">(56*2-B$60-B$61-J$60-J$61)/(56*2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E70" s="21" t="e">
+        <f ca="1">(56*2-C$60-C$61-K$60-K$61)/(56*2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F70" s="21" t="e">
+        <f ca="1">AVERAGE(D70:E70)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G70" s="21"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>12</v>
+      <c r="I70" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" s="7" t="e">
+        <f>(2-B67-J67)/2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K70" s="7" t="e">
+        <f>(2-C67-K67)/2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L70" s="7" t="e">
+        <f t="shared" ref="L70:L72" si="21">AVERAGE(J70:K70)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C71" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D71" s="21" t="e">
-        <f ca="1">(56*2-B$61-B$62-J$61-J$62)/(56*2)</f>
-        <v>#DIV/0!</v>
+        <f ca="1">(56*2-D$60-D$61-L$60-L$61)/(56*2)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E71" s="21" t="e">
-        <f ca="1">(56*2-C$61-C$62-K$61-K$62)/(56*2)</f>
-        <v>#DIV/0!</v>
+        <f ca="1">(56*2-E$60-E$61-M$60-M$61)/(56*2)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F71" s="21" t="e">
-        <f ca="1" t="shared" ref="F71:F73" si="18">AVERAGE(D71:E71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G71" s="21"/>
+        <f ca="1" t="shared" ref="F70:F72" si="22">AVERAGE(D71:E71)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J71" s="7" t="e">
-        <f>(2-B68-J68)/2</f>
-        <v>#DIV/0!</v>
+        <f>(2-D67-L67)/2</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K71" s="7" t="e">
-        <f>(2-C68-K68)/2</f>
-        <v>#DIV/0!</v>
+        <f>(2-E67-M67)/2</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L71" s="7" t="e">
-        <f t="shared" ref="L71:L73" si="19">AVERAGE(J71:K71)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C72" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D72" s="21" t="e">
-        <f ca="1">(56*2-D$61-D$62-L$61-L$62)/(56*2)</f>
-        <v>#DIV/0!</v>
+        <f ca="1">(56*2-F$60-F$61-N$60-N$61)/(56*2)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E72" s="21" t="e">
-        <f ca="1">(56*2-E$61-E$62-M$61-M$62)/(56*2)</f>
-        <v>#DIV/0!</v>
+        <f ca="1">(56*2-G$60-G$61-O$60-O$61)/(56*2)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F72" s="21" t="e">
-        <f ca="1" t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J72" s="7" t="e">
-        <f>(2-D68-L68)/2</f>
-        <v>#DIV/0!</v>
+        <f>(2-F67-N67)/2</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K72" s="7" t="e">
-        <f>(2-E68-M68)/2</f>
-        <v>#DIV/0!</v>
+        <f>(2-G67-O67)/2</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L72" s="7" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="13.5" spans="3:12">
-      <c r="C73" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" s="21" t="e">
-        <f ca="1">(56*2-F$61-F$62-N$61-N$62)/(56*2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E73" s="21" t="e">
-        <f ca="1">(56*2-G$61-G$62-O$61-O$62)/(56*2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F73" s="21" t="e">
-        <f ca="1" t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J73" s="7" t="e">
-        <f>(2-F68-N68)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K73" s="7" t="e">
-        <f>(2-G68-O68)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L73" s="7" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" ht="13.5" spans="3:12">
-      <c r="C74" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8" t="e">
-        <f ca="1">(56*2-H$61-H$62-P$61-P$62)/(56*2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J74" s="21"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="21" t="e">
-        <f>(2*6-SUM(B68:P68))/(2*6)</f>
-        <v>#DIV/0!</v>
+      <c r="C73" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8" t="e">
+        <f ca="1">(56*2-H$60-H$61-P$60-P$61)/(56*2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" s="21"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="21" t="e">
+        <f>(2*6-SUM(B67:P67))/(2*6)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -3888,8 +3718,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I18" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AF59"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3913,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3966,11 +3796,11 @@
       <c r="N2" s="6"/>
       <c r="O2" s="13" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v>2018年12月13日</v>
+        <v/>
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="10" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
@@ -4087,7 +3917,7 @@
         <v>31</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:33">
@@ -6354,7 +6184,7 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B60" s="8" t="e">
         <f>AVERAGE(I4:I59)</f>
@@ -6505,8 +6335,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView topLeftCell="I19" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AF59"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6530,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -6583,11 +6413,11 @@
       <c r="N2" s="6"/>
       <c r="O2" s="9" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v>2018年12月13日</v>
+        <v/>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="10" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
@@ -6706,7 +6536,7 @@
         <v>31</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AM3" s="1"/>
       <c r="AQ3" s="1"/>
@@ -9001,7 +8831,7 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B60" s="8" t="e">
         <f t="shared" ref="B60:I60" si="1">AVERAGE(B4:B59)</f>
@@ -9158,135 +8988,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1">
-        <v>43447.6173623727</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/excel/finished/焦化/CK67-6#炉温记录报表设计.xlsx
+++ b/excel/finished/焦化/CK67-6#炉温记录报表设计.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="_model" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="_model" sheetId="1" r:id="rId1"/>
     <sheet name="6#机侧炉温管控(月)从动态管控系统读取或计算" sheetId="2" r:id="rId2"/>
     <sheet name="6#焦侧炉温管控(月)从动态管控系统读取或计算" sheetId="3" r:id="rId3"/>
     <sheet name="炉温记录27" sheetId="4" r:id="rId4"/>
@@ -542,10 +542,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
   <fonts count="23">
@@ -577,12 +577,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -601,87 +628,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,9 +658,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,7 +734,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +848,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,31 +890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,121 +902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,16 +961,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -980,26 +989,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1035,26 +1024,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,10 +1064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,136 +1076,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1584,18 +1584,18 @@
   <sheetPr/>
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="7" width="9" style="1" collapsed="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16363" width="9" style="1" collapsed="1"/>
-    <col min="16364" max="16384" width="9" style="2" collapsed="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="9" max="16363" width="9" style="1"/>
+    <col min="16364" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">
@@ -7056,7 +7056,7 @@
   <sheetPr/>
   <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
+    <sheetView topLeftCell="P4" workbookViewId="0">
       <selection activeCell="AB4" sqref="AB4:AB59"/>
     </sheetView>
   </sheetViews>
